--- a/BehaviourChangeTechniques/bcto.xlsx
+++ b/BehaviourChangeTechniques/bcto.xlsx
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>advise goal integration</t>
+          <t>advise goal integration BCT</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="Q19" s="2" t="inlineStr"/>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
@@ -3701,8 +3701,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S59" s="3" t="n">
-        <v>0</v>
+      <c r="S59" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T59" s="3" t="inlineStr"/>
     </row>
@@ -3757,8 +3759,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S60" s="3" t="n">
-        <v>0</v>
+      <c r="S60" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T60" s="3" t="inlineStr"/>
     </row>

--- a/BehaviourChangeTechniques/bcto.xlsx
+++ b/BehaviourChangeTechniques/bcto.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
+          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -592,7 +592,7 @@
       <c r="Q2" s="2" t="inlineStr"/>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S2" s="2" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>An add objects to the environment BCT that adds an object to the person’s directly experienced environment at the time the behaviour is, or would have been, performed.</t>
+          <t>An &lt;add objects to the environment BCT&gt; that adds an object to the person’s directly experienced environment at the time the behaviour is, or would have been, performed.</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
@@ -644,7 +644,11 @@
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -670,7 +674,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>A restructure the physical environment BCT that adds objects to the person's physical surroundings.</t>
+          <t>A &lt;restructure the physical environment BCT&gt; that adds objects to the person's physical surroundings.</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -704,7 +708,7 @@
       <c r="Q4" s="2" t="inlineStr"/>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -732,7 +736,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>An add objects to the environment BCT that adds an object to the person’s environment at a time or location other than when and where the behaviour is performed.</t>
+          <t>An &lt;add objects to the environment BCT&gt; that adds an object to the person’s environment at a time or location other than when and where the behaviour is performed.</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
@@ -756,7 +760,11 @@
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
       <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -782,7 +790,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>A prompt focus on self-identity BCT that promotes the adoption of a self-identity as someone who engages in the behaviour that is different from their previous behaviour.</t>
+          <t>A &lt;prompt focus on self-identity BCT&gt; that promotes the adoption of a self-identity as someone who engages in the behaviour that is different from their previous behaviour.</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
@@ -810,7 +818,11 @@
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -836,7 +848,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>A prompt focus on self-identity BCT that promotes the adoption of a positive self-identity as someone who currently engages in the behaviour.</t>
+          <t>A &lt;prompt focus on self-identity BCT&gt; that promotes the adoption of a positive self-identity as someone who currently engages in the behaviour.</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
@@ -860,7 +872,11 @@
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -886,7 +902,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>An advise how to change emotions BCT that suggests the person perform a particular behaviour to change an emotion.</t>
+          <t>An &lt;advise how to change emotions BCT&gt; that suggests the person perform a particular behaviour to change an emotion.</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -914,7 +930,11 @@
       <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -940,7 +960,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to enhance negative emotions.</t>
+          <t>An &lt;advise behavioural ways to change emotions BCT&gt; suggesting the person perform a particular behaviour to enhance negative emotions.</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
@@ -964,7 +984,11 @@
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -990,7 +1014,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to enhance positive emotions.</t>
+          <t>An &lt;advise behavioural ways to change emotions BCT&gt; suggesting the person perform a particular behaviour to enhance positive emotions.</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
@@ -1014,7 +1038,11 @@
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1040,7 +1068,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to decrease negative emotions.</t>
+          <t>An &lt;advise behavioural ways to change emotions BCT&gt; suggesting the person perform a particular behaviour to decrease negative emotions.</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -1064,7 +1092,11 @@
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1090,7 +1122,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to decrease positive emotions.</t>
+          <t>An &lt;advise behavioural ways to change emotions BCT&gt; suggesting the person perform a particular behaviour to decrease positive emotions.</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -1114,7 +1146,11 @@
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1140,7 +1176,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>An advise how to change emotions BCT that suggests the person deliberately use a particular mental process.</t>
+          <t>An &lt;advise how to change emotions BCT&gt; that suggests the person deliberately use a particular mental process.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1170,7 +1206,7 @@
       <c r="Q13" s="2" t="inlineStr"/>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
@@ -1198,7 +1234,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to enhance negative emotions.</t>
+          <t>An &lt;advise cognitive ways to change emotions BCT&gt; suggesting the person deliberately use a particular mental process to enhance negative emotions.</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
@@ -1222,7 +1258,11 @@
       <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="inlineStr"/>
       <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1248,7 +1288,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to enhance positive emotions.</t>
+          <t>An &lt;advise cognitive ways to change emotions BCT&gt; suggesting the person deliberately use a particular mental process to enhance positive emotions.</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1272,7 +1312,11 @@
       <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr"/>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1298,7 +1342,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to decrease negative emotions.</t>
+          <t>An &lt;advise cognitive ways to change emotions BCT&gt; suggesting the person deliberately use a particular mental process to decrease negative emotions.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
@@ -1322,7 +1366,11 @@
       <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1348,7 +1396,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to decrease positive emotions.</t>
+          <t>An &lt;advise cognitive ways to change emotions BCT&gt; suggesting the person deliberately use a particular mental process to decrease positive emotions.</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
@@ -1372,7 +1420,11 @@
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr"/>
       <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1398,7 +1450,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>An manage mental processes BCT that advises the person to find an alternative focus for attention in order to avoid internal or external states or events associated with an unwanted behaviour.</t>
+          <t>A &lt;manage mental processes BCT&gt; that advises the person to find an alternative focus for attention in order to avoid internal or external states or events associated with an unwanted behaviour.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
@@ -1432,7 +1484,7 @@
       <c r="Q18" s="2" t="inlineStr"/>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
@@ -1460,7 +1512,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that advises the person to adopt more than one goal in a situation where the goals facilitate each other.</t>
+          <t>A &lt;goal directed BCT&gt; that advises the person to adopt more than one goal in a situation where the goals facilitate each other.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1518,7 +1570,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that suggests a method to alter emotions.</t>
+          <t>A &lt;behaviour change technique&gt; that suggests a method to alter emotions.</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1546,7 +1598,11 @@
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr"/>
       <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1572,7 +1628,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>An advise how to change emotions BCT suggesting a method to enhance negative emotions.</t>
+          <t>An &lt;advise how to change emotions BCT&gt; suggesting a method to enhance negative emotions.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1596,7 +1652,11 @@
       <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr"/>
       <c r="Q21" s="2" t="inlineStr"/>
-      <c r="R21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1622,7 +1682,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>An advise how to change emotions BCT suggesting a method to enhance positive emotions.</t>
+          <t>An &lt;advise how to change emotions BCT&gt; suggesting a method to enhance positive emotions.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1646,7 +1706,11 @@
       <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="inlineStr"/>
       <c r="Q22" s="2" t="inlineStr"/>
-      <c r="R22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1672,7 +1736,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>An advise how to change emotions BCT suggesting a method to decrease negative emotions.</t>
+          <t>An &lt;advise how to change emotions BCT&gt; suggesting a method to decrease negative emotions.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
@@ -1710,7 +1774,7 @@
       <c r="Q23" s="2" t="inlineStr"/>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
@@ -1738,7 +1802,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>An advise how to change emotions BCT suggesting a method to decrease positive emotions.</t>
+          <t>An &lt;advise how to change emotions BCT&gt; suggesting a method to decrease positive emotions.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1762,7 +1826,11 @@
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr"/>
       <c r="Q24" s="2" t="inlineStr"/>
-      <c r="R24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1788,7 +1856,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to engage in an unwanted behaviour in a way that is aversive.</t>
+          <t>An &lt;advise specific behaviour BCT&gt; that advises the person to engage in an unwanted behaviour in a way that is aversive.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
@@ -1824,7 +1892,11 @@
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1850,7 +1922,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>An advise how to change emotions BCT that suggests the person use a method that stimulates one or more senses.</t>
+          <t>An &lt;advise how to change emotions BCT&gt; that suggests the person use a method that stimulates one or more senses.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -1878,7 +1950,11 @@
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr"/>
       <c r="Q26" s="2" t="inlineStr"/>
-      <c r="R26" s="2" t="inlineStr"/>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1904,7 +1980,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to enhance negative emotions.</t>
+          <t>An &lt;advise sensory ways to change emotions BCT&gt; suggesting the person use a method that stimulates one or more senses to enhance negative emotions.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
@@ -1928,7 +2004,11 @@
       <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr"/>
-      <c r="R27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1954,7 +2034,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to enhance positive emotions.</t>
+          <t>An &lt;advise sensory ways to change emotions BCT&gt; suggesting the person use a method that stimulates one or more senses to enhance positive emotions.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -1978,7 +2058,11 @@
       <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="inlineStr"/>
       <c r="Q28" s="2" t="inlineStr"/>
-      <c r="R28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2004,7 +2088,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to decrease negative emotions.</t>
+          <t>An &lt;advise sensory ways to change emotions BCT&gt; suggesting the person use a method that stimulates one or more senses to decrease negative emotions.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2028,7 +2112,11 @@
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr"/>
       <c r="Q29" s="2" t="inlineStr"/>
-      <c r="R29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2054,7 +2142,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to decrease positive emotions.</t>
+          <t>An &lt;advise sensory ways to change emotions BCT&gt; suggesting the person use a method that stimulates one or more senses to decrease positive emotions.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -2078,7 +2166,11 @@
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr"/>
-      <c r="R30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2104,7 +2196,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that advises the person to perform a behaviour in a particular way to help change the target behaviour.</t>
+          <t>A &lt;behaviour change technique&gt; that advises the person to perform a behaviour in a particular way to help change the target behaviour.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
@@ -2132,7 +2224,11 @@
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="inlineStr"/>
       <c r="Q31" s="2" t="inlineStr"/>
-      <c r="R31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2158,7 +2254,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>A guide how to perform behaviour BCT that involves suggesting the person avoid spending time with others who do a behaviour that the person wants to reduce or stop.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that involves suggesting the person avoid spending time with others who do a behaviour that the person wants to reduce or stop.</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -2182,7 +2278,11 @@
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
       <c r="Q32" s="2" t="inlineStr"/>
-      <c r="R32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2208,7 +2308,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that advises the person to find ways to remind themselves of their behavioural goal.</t>
+          <t>A &lt;goal directed BCT&gt; that advises the person to find ways to remind themselves of their behavioural goal.</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -2232,7 +2332,11 @@
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
       <c r="Q33" s="2" t="inlineStr"/>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2258,7 +2362,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that advises the person to find ways to remind themselves of their goal in terms of a desired outcome of performing the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that advises the person to find ways to remind themselves of their goal in terms of a desired outcome of performing the behaviour.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
@@ -2282,7 +2386,11 @@
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
       <c r="Q34" s="2" t="inlineStr"/>
-      <c r="R34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2308,7 +2416,7 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of information that will aid the person in evaluating themself or the situation.</t>
+          <t>An &lt;advise to seek support BCT&gt; that suggests the person try to obtain support from another in terms of information that will aid the person in evaluating themself or the situation.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
@@ -2334,7 +2442,7 @@
       <c r="Q35" s="2" t="inlineStr"/>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
@@ -2362,7 +2470,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of expressing concern, caring and empathy.</t>
+          <t>An &lt;advise to seek support BCT&gt; that suggests the person try to obtain support from another in terms of expressing concern, caring and empathy.</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
@@ -2390,7 +2498,11 @@
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
       <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2416,7 +2528,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of advice, suggestions and information.</t>
+          <t>An &lt;advise to seek support BCT&gt; that suggests the person try to obtain support from another in terms of advice, suggestions and information.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
@@ -2440,7 +2552,11 @@
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr"/>
       <c r="Q37" s="2" t="inlineStr"/>
-      <c r="R37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2466,7 +2582,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of tangible aid.</t>
+          <t>An &lt;advise to seek support BCT&gt; that suggests the person try to obtain support from another in terms of tangible aid.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
@@ -2494,7 +2610,11 @@
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr"/>
       <c r="Q38" s="2" t="inlineStr"/>
-      <c r="R38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2520,7 +2640,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>A social support BCT that involves advising the person to seek support from another person.</t>
+          <t>A &lt;social support BCT&gt; that involves advising the person to seek support from another person.</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
@@ -2554,7 +2674,7 @@
       <c r="Q39" s="2" t="inlineStr"/>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
@@ -2582,7 +2702,7 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that asks the person to affirm or reaffirm statements indicating commitment to change the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that asks the person to affirm or reaffirm statements indicating commitment to change the behaviour.</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
@@ -2620,7 +2740,7 @@
       <c r="Q40" s="2" t="inlineStr"/>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
@@ -2648,7 +2768,7 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A prompt focus on self-identity BCT that advises engagement in activities that affirm the person's valued attributes.</t>
+          <t>A &lt;prompt focus on self-identity BCT&gt; that advises engagement in activities that affirm the person's valued attributes.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -2682,7 +2802,7 @@
       <c r="Q41" s="2" t="inlineStr"/>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
@@ -2710,7 +2830,7 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A goal setting BCT that involves the intervention source agreeing with the person on a behavioural goal.</t>
+          <t>A &lt;goal setting BCT&gt; that involves the intervention source agreeing with the person on a behavioural goal.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -2742,7 +2862,11 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr"/>
       <c r="Q42" s="2" t="inlineStr"/>
-      <c r="R42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2768,7 +2892,7 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A guide how to perform behaviour BCT that involves reaching consensus on how to perform the behaviour.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that involves reaching consensus on how to perform the behaviour.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
@@ -2798,7 +2922,7 @@
       <c r="Q43" s="2" t="inlineStr"/>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
@@ -2826,7 +2950,7 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A goal setting BCT that involves the intervention source agreeing with the person on a goal which is a positive outcome of performing the behaviour.</t>
+          <t>A &lt;goal setting BCT&gt; that involves the intervention source agreeing with the person on a goal which is a positive outcome of performing the behaviour.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
@@ -2864,7 +2988,7 @@
       <c r="Q44" s="2" t="inlineStr"/>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
@@ -2892,7 +3016,7 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>An associative learning BCT that involves creating, strengthening or reducing an association between the behaviour and an environmental trigger.</t>
+          <t>An &lt;associative learning BCT&gt; that involves creating, strengthening or reducing an association between the behaviour and an environmental trigger.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
@@ -2916,7 +3040,11 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr"/>
       <c r="Q45" s="2" t="inlineStr"/>
-      <c r="R45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2942,7 +3070,7 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>An arrange support BCT that organises support from another in terms of information that will aid the person in evaluating themself or the situation.</t>
+          <t>An &lt;arrange support BCT&gt; that organises support from another in terms of information that will aid the person in evaluating themself or the situation.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
@@ -2968,7 +3096,7 @@
       <c r="Q46" s="2" t="inlineStr"/>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
@@ -2996,7 +3124,7 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>An arrange support BCT that organises support from another in terms of expressing concern, caring and empathy.</t>
+          <t>An &lt;arrange support BCT&gt; that organises support from another in terms of expressing concern, caring and empathy.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
@@ -3024,7 +3152,11 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr"/>
       <c r="Q47" s="2" t="inlineStr"/>
-      <c r="R47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3050,7 +3182,7 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>An arrange support BCT that organises support from another in terms of advice, suggestions and information.</t>
+          <t>An &lt;arrange support BCT&gt; that organises support from another in terms of advice, suggestions and information.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -3074,7 +3206,11 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr"/>
       <c r="Q48" s="2" t="inlineStr"/>
-      <c r="R48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3100,7 +3236,7 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>An arrange support BCT that organises support from another in terms of tangible aid.</t>
+          <t>An &lt;arrange support BCT&gt; that organises support from another in terms of tangible aid.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
@@ -3128,7 +3264,11 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr"/>
       <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3154,7 +3294,7 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An expose to stimulus BCT that provides sustained exposure to a stimulus to reduce or extinguish an unwanted behaviour. </t>
+          <t xml:space="preserve">An &lt;expose to stimulus BCT&gt; that provides sustained exposure to a stimulus to reduce or extinguish an unwanted behaviour. </t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
@@ -3182,7 +3322,11 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr"/>
       <c r="Q50" s="2" t="inlineStr"/>
-      <c r="R50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3208,7 +3352,7 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A social support BCT that organises support from another for the person.</t>
+          <t>A &lt;social support BCT&gt; that organises support from another for the person.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
@@ -3242,7 +3386,7 @@
       <c r="Q51" s="2" t="inlineStr"/>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
@@ -3270,7 +3414,7 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that involves repeated pairing of a stimulus with another stimulus or with a behavioural outcome.</t>
+          <t>A &lt;behaviour change technique&gt; that involves repeated pairing of a stimulus with another stimulus or with a behavioural outcome.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
@@ -3308,7 +3452,7 @@
       <c r="Q52" s="2" t="inlineStr"/>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
@@ -3336,7 +3480,7 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An associative learning BCT that involves repeated pairing of a neutral stimulus with a stimulus that already elicits the behaviour until the neutral stimulus elicits the behaviour. </t>
+          <t xml:space="preserve">An &lt;associative learning BCT&gt; that involves repeated pairing of a neutral stimulus with a stimulus that already elicits the behaviour until the neutral stimulus elicits the behaviour. </t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
@@ -3366,7 +3510,7 @@
       <c r="Q53" s="2" t="inlineStr"/>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S53" s="2" t="inlineStr">
@@ -3394,7 +3538,7 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>An associative learning BCT that stops the presentation of a reward for the behaviour.</t>
+          <t>An &lt;associative learning BCT&gt; that stops the presentation of a reward for the behaviour.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
@@ -3428,7 +3572,7 @@
       <c r="Q54" s="2" t="inlineStr"/>
       <c r="R54" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S54" s="2" t="inlineStr">
@@ -3456,7 +3600,7 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that draws attention to discrepancies between a person's current behaviour and the person's outcome goal, behavioural goal or action plan.</t>
+          <t>A &lt;goal directed BCT&gt; that draws attention to discrepancies between a person's current behaviour and the person's outcome goal, behavioural goal or action plan.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
@@ -3490,7 +3634,7 @@
       <c r="Q55" s="2" t="inlineStr"/>
       <c r="R55" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S55" s="2" t="inlineStr">
@@ -3518,7 +3662,7 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that increases awareness of what other people think, do, or feel.</t>
+          <t>A &lt;behaviour change technique&gt; that increases awareness of what other people think, do, or feel.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -3542,7 +3686,11 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr"/>
       <c r="Q56" s="2" t="inlineStr"/>
-      <c r="R56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S56" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3568,7 +3716,7 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change</t>
+          <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -3592,7 +3740,11 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr"/>
       <c r="Q57" s="2" t="inlineStr"/>
-      <c r="R57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3618,7 +3770,7 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that alters the consequences or promised consequences for the behaviour.</t>
+          <t>A &lt;behaviour change technique&gt; that alters the consequences or promised consequences for the behaviour.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
@@ -3642,7 +3794,11 @@
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="inlineStr"/>
       <c r="Q58" s="2" t="inlineStr"/>
-      <c r="R58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3668,7 +3824,7 @@
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>A goal directed BCT that changes an existing goal for the behaviour to be achieved.</t>
+          <t>A &lt;goal directed BCT&gt; that changes an existing goal for the behaviour to be achieved.</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr"/>
@@ -3698,7 +3854,7 @@
       <c r="Q59" s="3" t="inlineStr"/>
       <c r="R59" s="3" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S59" s="3" t="inlineStr">
@@ -3726,7 +3882,7 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>A goal directed BCT that changes an existing goal for the outcome to be achieved.</t>
+          <t>A &lt;goal directed BCT&gt; that changes an existing goal for the outcome to be achieved.</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr"/>
@@ -3756,7 +3912,7 @@
       <c r="Q60" s="3" t="inlineStr"/>
       <c r="R60" s="3" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S60" s="3" t="inlineStr">
@@ -3784,7 +3940,7 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that alters the structure or functioning of the person's body.</t>
+          <t>A &lt;behaviour change technique&gt; that alters the structure or functioning of the person's body.</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
@@ -3816,7 +3972,11 @@
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr"/>
       <c r="Q61" s="2" t="inlineStr"/>
-      <c r="R61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S61" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3842,7 +4002,7 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that advises on how to identify and test hypotheses about the behaviour, its causes and consequences.</t>
+          <t>A &lt;behaviour change technique&gt; that advises on how to identify and test hypotheses about the behaviour, its causes and consequences.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -3876,7 +4036,7 @@
       <c r="Q62" s="2" t="inlineStr"/>
       <c r="R62" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S62" s="2" t="inlineStr">
@@ -3904,7 +4064,7 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>A manage mental processes BCT that advises a way to minimise demands on mental resources.</t>
+          <t>A &lt;manage mental processes BCT&gt; that advises a way to minimise demands on mental resources.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
@@ -3936,7 +4096,11 @@
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr"/>
       <c r="Q63" s="2" t="inlineStr"/>
-      <c r="R63" s="2" t="inlineStr"/>
+      <c r="R63" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3962,7 +4126,7 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that advises identification and comparison of the positive and negative consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that advises identification and comparison of the positive and negative consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -3996,7 +4160,7 @@
       <c r="Q64" s="2" t="inlineStr"/>
       <c r="R64" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S64" s="2" t="inlineStr">
@@ -4024,7 +4188,7 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to refrain from engaging in the behaviour in a specified context.</t>
+          <t>An &lt;advise specific behaviour BCT&gt; that advises the person to refrain from engaging in the behaviour in a specified context.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
@@ -4052,7 +4216,11 @@
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr"/>
       <c r="Q65" s="2" t="inlineStr"/>
-      <c r="R65" s="2" t="inlineStr"/>
+      <c r="R65" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4078,7 +4246,7 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to repeat an alternative behaviour consistently in a context that previously elicited an unwanted behaviour.</t>
+          <t>An &lt;advise specific behaviour BCT&gt; that advises the person to repeat an alternative behaviour consistently in a context that previously elicited an unwanted behaviour.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
@@ -4116,7 +4284,7 @@
       <c r="Q66" s="2" t="inlineStr"/>
       <c r="R66" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S66" s="2" t="inlineStr">
@@ -4144,7 +4312,7 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to repeat the behaviour in the same context.</t>
+          <t>An &lt;advise specific behaviour BCT&gt; that advises the person to repeat the behaviour in the same context.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
@@ -4182,7 +4350,7 @@
       <c r="Q67" s="2" t="inlineStr"/>
       <c r="R67" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S67" s="2" t="inlineStr">
@@ -4210,7 +4378,7 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that creates a written specification of the behaviour to be performed, agreed on by the person, and witnessed by another person.</t>
+          <t>A &lt;goal directed BCT&gt; that creates a written specification of the behaviour to be performed, agreed on by the person, and witnessed by another person.</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
@@ -4248,7 +4416,7 @@
       <c r="Q68" s="2" t="inlineStr"/>
       <c r="R68" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S68" s="2" t="inlineStr">
@@ -4276,7 +4444,7 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that introduces external information that is already associated with the behaviour in order to elicit that behaviour.</t>
+          <t>An &lt;alter external stimulus BCT&gt; that introduces external information that is already associated with the behaviour in order to elicit that behaviour.</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
@@ -4314,7 +4482,7 @@
       <c r="Q69" s="2" t="inlineStr"/>
       <c r="R69" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S69" s="2" t="inlineStr">
@@ -4342,7 +4510,7 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that identifies an external stimulus that reliably signals that reward will follow the behaviour.</t>
+          <t>An &lt;alter external stimulus BCT&gt; that identifies an external stimulus that reliably signals that reward will follow the behaviour.</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
@@ -4376,7 +4544,7 @@
       <c r="Q70" s="2" t="inlineStr"/>
       <c r="R70" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S70" s="2" t="inlineStr">
@@ -4404,7 +4572,7 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>A deliver support BCT that provides information that will aid the person in evaluating themself or the situation.</t>
+          <t>A &lt;deliver support BCT&gt; that provides information that will aid the person in evaluating themself or the situation.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
@@ -4434,7 +4602,7 @@
       <c r="Q71" s="2" t="inlineStr"/>
       <c r="R71" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S71" s="2" t="inlineStr">
@@ -4462,7 +4630,7 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>A deliver support BCT that provides expressions of concern, caring and empathy.</t>
+          <t>A &lt;deliver support BCT&gt; that provides expressions of concern, caring and empathy.</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
@@ -4496,7 +4664,7 @@
       <c r="Q72" s="2" t="inlineStr"/>
       <c r="R72" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S72" s="2" t="inlineStr">
@@ -4524,7 +4692,7 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>A deliver support BCT that provides advice, suggestions and information.</t>
+          <t>A &lt;deliver support BCT&gt; that provides advice, suggestions and information.</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
@@ -4554,7 +4722,7 @@
       <c r="Q73" s="2" t="inlineStr"/>
       <c r="R73" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S73" s="2" t="inlineStr">
@@ -4582,7 +4750,7 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A deliver support BCT that provides tangible aid.</t>
+          <t>A &lt;deliver support BCT&gt; that provides tangible aid.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
@@ -4616,7 +4784,7 @@
       <c r="Q74" s="2" t="inlineStr"/>
       <c r="R74" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S74" s="2" t="inlineStr">
@@ -4644,7 +4812,7 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>A social support BCT that directly provides support to the person.</t>
+          <t>A &lt;social support BCT&gt; that directly provides support to the person.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
@@ -4682,7 +4850,7 @@
       <c r="Q75" s="2" t="inlineStr"/>
       <c r="R75" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S75" s="2" t="inlineStr">
@@ -4710,7 +4878,7 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>A guide how to perform behaviour BCT that provides an observable sample of the performance of the behaviour for the person to aspire to or imitate.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that provides an observable sample of the performance of the behaviour for the person to aspire to or imitate.</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
@@ -4748,7 +4916,7 @@
       <c r="Q76" s="2" t="inlineStr"/>
       <c r="R76" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S76" s="2" t="inlineStr">
@@ -4776,7 +4944,7 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>A restructure the physical environment BCT that changes the person’s directly experienced environment at the time the behaviour is, or would have been, performed.</t>
+          <t>A &lt;restructure the physical environment BCT&gt; that changes the person’s directly experienced environment at the time the behaviour is, or would have been, performed.</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
@@ -4806,7 +4974,11 @@
       <c r="O77" s="2" t="inlineStr"/>
       <c r="P77" s="2" t="inlineStr"/>
       <c r="Q77" s="2" t="inlineStr"/>
-      <c r="R77" s="2" t="inlineStr"/>
+      <c r="R77" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S77" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4832,7 +5004,7 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>A restructure the social environment BCT that changes the person's directly experienced environment at the time the behaviour is, or would have been, performed.</t>
+          <t>A &lt;restructure the social environment BCT&gt; that changes the person's directly experienced environment at the time the behaviour is, or would have been, performed.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
@@ -4856,7 +5028,11 @@
       <c r="O78" s="2" t="inlineStr"/>
       <c r="P78" s="2" t="inlineStr"/>
       <c r="Q78" s="2" t="inlineStr"/>
-      <c r="R78" s="2" t="inlineStr"/>
+      <c r="R78" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S78" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4882,7 +5058,7 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A suggest different perspective on behaviour BCT that draws the person's attention to the discrepancies between current or past behaviour and self-identity.</t>
+          <t>A &lt;suggest different perspective on behaviour BCT&gt; that draws the person's attention to the discrepancies between current or past behaviour and self-identity.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
@@ -4914,7 +5090,11 @@
       <c r="O79" s="2" t="inlineStr"/>
       <c r="P79" s="2" t="inlineStr"/>
       <c r="Q79" s="2" t="inlineStr"/>
-      <c r="R79" s="2" t="inlineStr"/>
+      <c r="R79" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S79" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4940,7 +5120,7 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A manage mental processes BCT that promotes a task that trains the person to control automatic responses.</t>
+          <t>A &lt;manage mental processes BCT&gt; that promotes a task that trains the person to control automatic responses.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
@@ -4972,7 +5152,11 @@
       <c r="O80" s="2" t="inlineStr"/>
       <c r="P80" s="2" t="inlineStr"/>
       <c r="Q80" s="2" t="inlineStr"/>
-      <c r="R80" s="2" t="inlineStr"/>
+      <c r="R80" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S80" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4998,7 +5182,7 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A promote pharmacological support BCT that encourages the person to use medicines or other drugs.</t>
+          <t>A &lt;promote pharmacological support BCT&gt; that encourages the person to use medicines or other drugs.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -5026,7 +5210,11 @@
       <c r="O81" s="2" t="inlineStr"/>
       <c r="P81" s="2" t="inlineStr"/>
       <c r="Q81" s="2" t="inlineStr"/>
-      <c r="R81" s="2" t="inlineStr"/>
+      <c r="R81" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S81" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5052,7 +5240,7 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that sustains the person's exposure to a stimulus associated with the behaviour.</t>
+          <t>An &lt;alter external stimulus BCT&gt; that sustains the person's exposure to a stimulus associated with the behaviour.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
@@ -5084,7 +5272,11 @@
       <c r="O82" s="2" t="inlineStr"/>
       <c r="P82" s="2" t="inlineStr"/>
       <c r="Q82" s="2" t="inlineStr"/>
-      <c r="R82" s="2" t="inlineStr"/>
+      <c r="R82" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S82" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5110,7 +5302,7 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>An expose to stimulus BCT that involves sustained exposure to an aversive stimulus to reduce the likelihood of the behaviour when encountering that stimulus.</t>
+          <t>An &lt;expose to stimulus BCT&gt; that involves sustained exposure to an aversive stimulus to reduce the likelihood of the behaviour when encountering that stimulus.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
@@ -5142,7 +5334,11 @@
       <c r="O83" s="2" t="inlineStr"/>
       <c r="P83" s="2" t="inlineStr"/>
       <c r="Q83" s="2" t="inlineStr"/>
-      <c r="R83" s="2" t="inlineStr"/>
+      <c r="R83" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S83" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5168,7 +5364,7 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that enables the person to engage in an alternative rewarding behaviour that increases the likelihood of goal achievement.</t>
+          <t>A &lt;goal directed BCT&gt; that enables the person to engage in an alternative rewarding behaviour that increases the likelihood of goal achievement.</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
@@ -5192,7 +5388,11 @@
       <c r="O84" s="2" t="inlineStr"/>
       <c r="P84" s="2" t="inlineStr"/>
       <c r="Q84" s="2" t="inlineStr"/>
-      <c r="R84" s="2" t="inlineStr"/>
+      <c r="R84" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S84" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5218,7 +5418,7 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to perform the behaviour which is already performed in a particular context, in a similar context.</t>
+          <t>An &lt;advise specific behaviour BCT&gt; that advises the person to perform the behaviour which is already performed in a particular context, in a similar context.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
@@ -5252,7 +5452,7 @@
       <c r="Q85" s="2" t="inlineStr"/>
       <c r="R85" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S85" s="2" t="inlineStr">
@@ -5280,7 +5480,7 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that sets or changes goals.</t>
+          <t>A &lt;behaviour change technique&gt; that sets or changes goals.</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
@@ -5308,7 +5508,11 @@
       <c r="O86" s="2" t="inlineStr"/>
       <c r="P86" s="2" t="inlineStr"/>
       <c r="Q86" s="2" t="inlineStr"/>
-      <c r="R86" s="2" t="inlineStr"/>
+      <c r="R86" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S86" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5334,7 +5538,7 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that sets goals.</t>
+          <t>A &lt;goal directed BCT&gt; that sets goals.</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
@@ -5362,7 +5566,11 @@
       <c r="O87" s="2" t="inlineStr"/>
       <c r="P87" s="2" t="inlineStr"/>
       <c r="Q87" s="2" t="inlineStr"/>
-      <c r="R87" s="2" t="inlineStr"/>
+      <c r="R87" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S87" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5388,7 +5596,7 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT in which the person analyses factors influencing the behaviour and generates, selects, or reviews strategies to increase facilitators and overcome barriers.</t>
+          <t>A &lt;goal directed BCT&gt; in which the person analyses factors influencing the behaviour and generates, selects, or reviews strategies to increase facilitators and overcome barriers.</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
@@ -5426,7 +5634,7 @@
       <c r="Q88" s="2" t="inlineStr"/>
       <c r="R88" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S88" s="2" t="inlineStr">
@@ -5454,7 +5662,7 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>An expose to stimulus BCT that involves gradually increasing exposure to an aversive stimulus to reduce the likelihood of the behaviour when encountering that stimulus.</t>
+          <t>An &lt;expose to stimulus BCT&gt; that involves gradually increasing exposure to an aversive stimulus to reduce the likelihood of the behaviour when encountering that stimulus.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
@@ -5486,7 +5694,11 @@
       <c r="O89" s="2" t="inlineStr"/>
       <c r="P89" s="2" t="inlineStr"/>
       <c r="Q89" s="2" t="inlineStr"/>
-      <c r="R89" s="2" t="inlineStr"/>
+      <c r="R89" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S89" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5512,7 +5724,7 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that provides guidance regarding how to perform the behaviour.</t>
+          <t>A &lt;behaviour change technique&gt; that provides guidance regarding how to perform the behaviour.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -5536,7 +5748,11 @@
       <c r="O90" s="2" t="inlineStr"/>
       <c r="P90" s="2" t="inlineStr"/>
       <c r="Q90" s="2" t="inlineStr"/>
-      <c r="R90" s="2" t="inlineStr"/>
+      <c r="R90" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S90" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5562,7 +5778,7 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>A prompt focus on self-identity BCT that informs the person that their behaviour may be an example to others.</t>
+          <t>A &lt;prompt focus on self-identity BCT&gt; that informs the person that their behaviour may be an example to others.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
@@ -5590,7 +5806,11 @@
       <c r="O91" s="2" t="inlineStr"/>
       <c r="P91" s="2" t="inlineStr"/>
       <c r="Q91" s="2" t="inlineStr"/>
-      <c r="R91" s="2" t="inlineStr"/>
+      <c r="R91" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S91" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5616,7 +5836,7 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that guides the person to imagine performing the unwanted behaviour in a real-life situation followed by experiencing an unpleasant consequence for performing that behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that guides the person to imagine performing the unwanted behaviour in a real-life situation followed by experiencing an unpleasant consequence for performing that behaviour.</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
@@ -5648,7 +5868,11 @@
       <c r="O92" s="2" t="inlineStr"/>
       <c r="P92" s="2" t="inlineStr"/>
       <c r="Q92" s="2" t="inlineStr"/>
-      <c r="R92" s="2" t="inlineStr"/>
+      <c r="R92" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S92" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5674,7 +5898,7 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that guides the person to imagine performing the wanted behaviour in a real-life situation followed by experiencing a pleasant consequence for performing that behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that guides the person to imagine performing the wanted behaviour in a real-life situation followed by experiencing a pleasant consequence for performing that behaviour.</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
@@ -5706,7 +5930,11 @@
       <c r="O93" s="2" t="inlineStr"/>
       <c r="P93" s="2" t="inlineStr"/>
       <c r="Q93" s="2" t="inlineStr"/>
-      <c r="R93" s="2" t="inlineStr"/>
+      <c r="R93" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S93" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5732,7 +5960,7 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>An awareness of other people's thoughts, feelings and actions BCT that makes an emotional or earnest appeal to change the person's behaviour.</t>
+          <t>An &lt;awareness of other people's thoughts, feelings and actions BCT&gt; that makes an emotional or earnest appeal to change the person's behaviour.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
@@ -5760,7 +5988,11 @@
       <c r="O94" s="2" t="inlineStr"/>
       <c r="P94" s="2" t="inlineStr"/>
       <c r="Q94" s="2" t="inlineStr"/>
-      <c r="R94" s="2" t="inlineStr"/>
+      <c r="R94" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S94" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5786,7 +6018,7 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour change technique that draws attention to the behaviour. </t>
+          <t xml:space="preserve">A &lt;behaviour change technique&gt; that draws attention to the behaviour. </t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
@@ -5814,7 +6046,11 @@
       <c r="O95" s="2" t="inlineStr"/>
       <c r="P95" s="2" t="inlineStr"/>
       <c r="Q95" s="2" t="inlineStr"/>
-      <c r="R95" s="2" t="inlineStr"/>
+      <c r="R95" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S95" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5840,7 +6076,7 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour change technique that draws attention to consequences of the behaviour in the normal course of events. </t>
+          <t xml:space="preserve">A &lt;behaviour change technique&gt; that draws attention to consequences of the behaviour in the normal course of events. </t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
@@ -5864,7 +6100,11 @@
       <c r="O96" s="2" t="inlineStr"/>
       <c r="P96" s="2" t="inlineStr"/>
       <c r="Q96" s="2" t="inlineStr"/>
-      <c r="R96" s="2" t="inlineStr"/>
+      <c r="R96" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S96" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5890,7 +6130,7 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of behaviour BCT that draws attention to the possibility of performing a novel behaviour.</t>
+          <t>An &lt;increase awareness of behaviour BCT&gt; that draws attention to the possibility of performing a novel behaviour.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
@@ -5918,7 +6158,11 @@
       <c r="O97" s="2" t="inlineStr"/>
       <c r="P97" s="2" t="inlineStr"/>
       <c r="Q97" s="2" t="inlineStr"/>
-      <c r="R97" s="2" t="inlineStr"/>
+      <c r="R97" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S97" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5944,7 +6188,7 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>An awareness of other people's thoughts, feelings and actions BCT that increases awareness of whether others will like, approve, dislike, or disapprove of the behaviour.</t>
+          <t>An &lt;awareness of other people's thoughts, feelings and actions BCT&gt; that increases awareness of whether others will like, approve, dislike, or disapprove of the behaviour.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
@@ -5972,7 +6216,11 @@
       <c r="O98" s="2" t="inlineStr"/>
       <c r="P98" s="2" t="inlineStr"/>
       <c r="Q98" s="2" t="inlineStr"/>
-      <c r="R98" s="2" t="inlineStr"/>
+      <c r="R98" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S98" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5998,7 +6246,7 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of behaviour BCT that makes the possibility of performing the behaviour more distinctive or prominent.</t>
+          <t>An &lt;increase awareness of behaviour BCT&gt; that makes the possibility of performing the behaviour more distinctive or prominent.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
@@ -6032,7 +6280,7 @@
       <c r="Q99" s="2" t="inlineStr"/>
       <c r="R99" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S99" s="2" t="inlineStr">
@@ -6060,7 +6308,7 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An awareness of consequences BCT that changes behaviour by the source emphasising the consequences of performing a behaviour to the person in a way that makes them memorable. </t>
+          <t xml:space="preserve">An &lt;awareness of consequences BCT&gt; that changes behaviour by the source emphasising the consequences of performing a behaviour to the person in a way that makes them memorable. </t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
@@ -6098,7 +6346,7 @@
       <c r="Q100" s="2" t="inlineStr"/>
       <c r="R100" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S100" s="2" t="inlineStr">
@@ -6126,7 +6374,7 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>A restructure the physical environment BCT that changes the person's environment at a time or location other than when and where the behaviour is performed.</t>
+          <t>A &lt;restructure the physical environment BCT&gt; that changes the person's environment at a time or location other than when and where the behaviour is performed.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
@@ -6155,7 +6403,11 @@
       <c r="O101" s="2" t="inlineStr"/>
       <c r="P101" s="2" t="inlineStr"/>
       <c r="Q101" s="2" t="inlineStr"/>
-      <c r="R101" s="2" t="inlineStr"/>
+      <c r="R101" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S101" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6181,7 +6433,7 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A restructure the social environment BCT that changes the person's environment at a time or location other than when and where the behaviour is performed. </t>
+          <t xml:space="preserve">A &lt;restructure the social environment BCT&gt; that changes the person's environment at a time or location other than when and where the behaviour is performed. </t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
@@ -6205,7 +6457,11 @@
       <c r="O102" s="2" t="inlineStr"/>
       <c r="P102" s="2" t="inlineStr"/>
       <c r="Q102" s="2" t="inlineStr"/>
-      <c r="R102" s="2" t="inlineStr"/>
+      <c r="R102" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S102" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6231,7 +6487,7 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>An inform about emotional consequences BCT that focuses on expectations of remorse after performing or not performing the behaviour.</t>
+          <t>An &lt;inform about emotional consequences BCT&gt; that focuses on expectations of remorse after performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
@@ -6265,7 +6521,7 @@
       <c r="Q103" s="2" t="inlineStr"/>
       <c r="R103" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S103" s="2" t="inlineStr">
@@ -6293,7 +6549,7 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>A suggest different perspective on behaviour BCT that involves providing factual information to the person regarding triggers or influences that precede the initiation of the behaviour.</t>
+          <t>A &lt;suggest different perspective on behaviour BCT&gt; that involves providing factual information to the person regarding triggers or influences that precede the initiation of the behaviour.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -6327,7 +6583,7 @@
       <c r="Q104" s="2" t="inlineStr"/>
       <c r="R104" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S104" s="2" t="inlineStr">
@@ -6355,7 +6611,7 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that provides information about the emotional consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that provides information about the emotional consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
@@ -6393,7 +6649,7 @@
       <c r="Q105" s="2" t="inlineStr"/>
       <c r="R105" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S105" s="2" t="inlineStr">
@@ -6421,7 +6677,7 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that provides information about the environmental consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that provides information about the environmental consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
@@ -6459,7 +6715,7 @@
       <c r="Q106" s="2" t="inlineStr"/>
       <c r="R106" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S106" s="2" t="inlineStr">
@@ -6487,7 +6743,7 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that provides information about the physical or mental health consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that provides information about the physical or mental health consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
@@ -6525,7 +6781,7 @@
       <c r="Q107" s="2" t="inlineStr"/>
       <c r="R107" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S107" s="2" t="inlineStr">
@@ -6553,7 +6809,7 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>An inform about emotional consequences BCT that provides information about the negative emotional consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;inform about emotional consequences BCT&gt; that provides information about the negative emotional consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
@@ -6579,7 +6835,7 @@
       <c r="Q108" s="2" t="inlineStr"/>
       <c r="R108" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S108" s="2" t="inlineStr">
@@ -6607,7 +6863,7 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>An inform about environmental consequences BCT that provides information about the negative environmental consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;inform about environmental consequences BCT&gt; that provides information about the negative environmental consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
@@ -6633,7 +6889,7 @@
       <c r="Q109" s="2" t="inlineStr"/>
       <c r="R109" s="2" t="inlineStr">
         <is>
-          <t>lz; RW</t>
+          <t>lz; RW; LZ</t>
         </is>
       </c>
       <c r="S109" s="2" t="inlineStr">
@@ -6661,7 +6917,7 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>An inform about health consequences BCT that provides information about the negative physical or mental health consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;inform about health consequences BCT&gt; that provides information about the negative physical or mental health consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -6687,7 +6943,7 @@
       <c r="Q110" s="2" t="inlineStr"/>
       <c r="R110" s="2" t="inlineStr">
         <is>
-          <t>lz; RW</t>
+          <t>lz; RW; LZ</t>
         </is>
       </c>
       <c r="S110" s="2" t="inlineStr">
@@ -6715,7 +6971,7 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>An inform about social consequences BCT that provides information about the negative social consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;inform about social consequences BCT&gt; that provides information about the negative social consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -6741,7 +6997,7 @@
       <c r="Q111" s="2" t="inlineStr"/>
       <c r="R111" s="2" t="inlineStr">
         <is>
-          <t>lz; RW</t>
+          <t>lz; RW; LZ</t>
         </is>
       </c>
       <c r="S111" s="2" t="inlineStr">
@@ -6769,7 +7025,7 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>An inform about emotional consequences BCT that provides information about the positive emotional consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;inform about emotional consequences BCT&gt; that provides information about the positive emotional consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -6795,7 +7051,7 @@
       <c r="Q112" s="2" t="inlineStr"/>
       <c r="R112" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S112" s="2" t="inlineStr">
@@ -6823,7 +7079,7 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>An inform about environmental consequences BCT that provides information about the positive environmental consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;inform about environmental consequences BCT&gt; that provides information about the positive environmental consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
@@ -6849,7 +7105,7 @@
       <c r="Q113" s="2" t="inlineStr"/>
       <c r="R113" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S113" s="2" t="inlineStr">
@@ -6877,7 +7133,7 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>An inform about health consequences BCT that provides information about the positive physical or mental health consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;inform about health consequences BCT&gt; that provides information about the positive physical or mental health consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
@@ -6903,7 +7159,7 @@
       <c r="Q114" s="2" t="inlineStr"/>
       <c r="R114" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S114" s="2" t="inlineStr">
@@ -6931,7 +7187,7 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>An inform about social consequences BCT that provides information about the positive social consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;inform about social consequences BCT&gt; that provides information about the positive social consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
@@ -6957,7 +7213,7 @@
       <c r="Q115" s="2" t="inlineStr"/>
       <c r="R115" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S115" s="2" t="inlineStr">
@@ -6985,7 +7241,7 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that provides information about the social consequences of performing or not performing the behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that provides information about the social consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
@@ -7023,7 +7279,7 @@
       <c r="Q116" s="2" t="inlineStr"/>
       <c r="R116" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S116" s="2" t="inlineStr">
@@ -7051,7 +7307,7 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A guide how to perform behaviour BCT that involves telling the person how to perform the behaviour.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that involves telling the person how to perform the behaviour.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
@@ -7089,7 +7345,7 @@
       <c r="Q117" s="2" t="inlineStr"/>
       <c r="R117" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S117" s="2" t="inlineStr">
@@ -7117,7 +7373,7 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that involves the person communicating their intention to achieve a goal.</t>
+          <t>A &lt;goal directed BCT&gt; that involves the person communicating their intention to achieve a goal.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
@@ -7147,7 +7403,7 @@
       <c r="Q118" s="2" t="inlineStr"/>
       <c r="R118" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S118" s="2" t="inlineStr">
@@ -7175,7 +7431,7 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour change technique that advises how to manage mental processes to facilitate the behaviour. </t>
+          <t xml:space="preserve">A &lt;behaviour change technique&gt; that advises how to manage mental processes to facilitate the behaviour. </t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
@@ -7205,7 +7461,7 @@
       <c r="Q119" s="2" t="inlineStr"/>
       <c r="R119" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S119" s="2" t="inlineStr">
@@ -7233,7 +7489,7 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT that involves the person assessing their emotions after performing the behaviour.</t>
+          <t>A &lt;monitoring BCT&gt; that involves the person assessing their emotions after performing the behaviour.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
@@ -7261,7 +7517,11 @@
       <c r="O120" s="2" t="inlineStr"/>
       <c r="P120" s="2" t="inlineStr"/>
       <c r="Q120" s="2" t="inlineStr"/>
-      <c r="R120" s="2" t="inlineStr"/>
+      <c r="R120" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S120" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7287,7 +7547,7 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour change technique that involves gathering or using information about performance. </t>
+          <t xml:space="preserve">A &lt;behaviour change technique&gt; that involves gathering or using information about performance. </t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
@@ -7311,7 +7571,11 @@
       <c r="O121" s="2" t="inlineStr"/>
       <c r="P121" s="2" t="inlineStr"/>
       <c r="Q121" s="2" t="inlineStr"/>
-      <c r="R121" s="2" t="inlineStr"/>
+      <c r="R121" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S121" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7337,7 +7601,7 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT that observes current performance of the behaviour with the person’s knowledge but without providing feedback about their behaviour.</t>
+          <t>A &lt;monitoring BCT&gt; that observes current performance of the behaviour with the person’s knowledge but without providing feedback about their behaviour.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -7375,7 +7639,7 @@
       <c r="Q122" s="2" t="inlineStr"/>
       <c r="R122" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S122" s="2" t="inlineStr">
@@ -7403,7 +7667,7 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT that observes an outcome of performing the behaviour with the person’s knowledge but without providing feedback about the outcome.</t>
+          <t>A &lt;monitoring BCT&gt; that observes an outcome of performing the behaviour with the person’s knowledge but without providing feedback about the outcome.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -7437,7 +7701,7 @@
       <c r="Q123" s="2" t="inlineStr"/>
       <c r="R123" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S123" s="2" t="inlineStr">
@@ -7465,7 +7729,7 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that alters the consequences or promised consequences for an outcome that results from performing or not performing the behaviour.</t>
+          <t>A &lt;behaviour change technique&gt; that alters the consequences or promised consequences for an outcome that results from performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
@@ -7489,7 +7753,11 @@
       <c r="O124" s="2" t="inlineStr"/>
       <c r="P124" s="2" t="inlineStr"/>
       <c r="Q124" s="2" t="inlineStr"/>
-      <c r="R124" s="2" t="inlineStr"/>
+      <c r="R124" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S124" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7515,7 +7783,7 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to repeat a wanted behaviour in an exaggerated way following performance of an unwanted behaviour.</t>
+          <t>An &lt;advise specific behaviour BCT&gt; that advises the person to repeat a wanted behaviour in an exaggerated way following performance of an unwanted behaviour.</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
@@ -7549,7 +7817,7 @@
       <c r="Q125" s="2" t="inlineStr"/>
       <c r="R125" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S125" s="2" t="inlineStr">
@@ -7577,7 +7845,7 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A prompt thinking related to successful performance BCT that persuades the person that they can successfully perform the behaviour. </t>
+          <t xml:space="preserve">A &lt;prompt thinking related to successful performance BCT&gt; that persuades the person that they can successfully perform the behaviour. </t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
@@ -7609,7 +7877,11 @@
       <c r="O126" s="2" t="inlineStr"/>
       <c r="P126" s="2" t="inlineStr"/>
       <c r="Q126" s="2" t="inlineStr"/>
-      <c r="R126" s="2" t="inlineStr"/>
+      <c r="R126" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S126" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7635,7 +7907,7 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that advises the person to plan a way of performing the behaviour that is pleasurable or satisfying.</t>
+          <t>A &lt;goal directed BCT&gt; that advises the person to plan a way of performing the behaviour that is pleasurable or satisfying.</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
@@ -7659,7 +7931,11 @@
       <c r="O127" s="2" t="inlineStr"/>
       <c r="P127" s="2" t="inlineStr"/>
       <c r="Q127" s="2" t="inlineStr"/>
-      <c r="R127" s="2" t="inlineStr"/>
+      <c r="R127" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S127" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7685,7 +7961,7 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises repetition of the behaviour in a way that has the function of increasing the skill in performing the behaviour.</t>
+          <t>An &lt;advise specific behaviour BCT&gt; that advises repetition of the behaviour in a way that has the function of increasing the skill in performing the behaviour.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
@@ -7723,7 +7999,7 @@
       <c r="Q128" s="2" t="inlineStr"/>
       <c r="R128" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S128" s="2" t="inlineStr">
@@ -7751,7 +8027,7 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>An awareness of other people's thoughts, feelings and actions BCT that presents information from a credible person or organisation to influence the behaviour.</t>
+          <t>An &lt;awareness of other people's thoughts, feelings and actions BCT&gt; that presents information from a credible person or organisation to influence the behaviour.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
@@ -7785,7 +8061,7 @@
       <c r="Q129" s="2" t="inlineStr"/>
       <c r="R129" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S129" s="2" t="inlineStr">
@@ -7813,7 +8089,7 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>A promise consequence for behaviour BCT where the consequence is aversive.</t>
+          <t>A &lt;promise consequence for behaviour BCT&gt; where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
@@ -7851,7 +8127,7 @@
       <c r="Q130" s="2" t="inlineStr"/>
       <c r="R130" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S130" s="2" t="inlineStr">
@@ -7879,7 +8155,7 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A promise consequence for outcome of behaviour BCT where the consequence is aversive.</t>
+          <t>A &lt;promise consequence for outcome of behaviour BCT&gt; where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
@@ -7909,7 +8185,7 @@
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S131" s="2" t="inlineStr">
@@ -7937,7 +8213,7 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A promise aversive consequence for behaviour BCT that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
+          <t>A &lt;promise aversive consequence for behaviour BCT&gt; that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
@@ -7967,7 +8243,7 @@
       <c r="Q132" s="2" t="inlineStr"/>
       <c r="R132" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S132" s="2" t="inlineStr">
@@ -7995,7 +8271,7 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A promise aversive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise aversive consequence for behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
@@ -8025,7 +8301,7 @@
       <c r="Q133" s="2" t="inlineStr"/>
       <c r="R133" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S133" s="2" t="inlineStr">
@@ -8053,7 +8329,7 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A promise aversive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise aversive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
@@ -8079,7 +8355,7 @@
       <c r="Q134" s="2" t="inlineStr"/>
       <c r="R134" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S134" s="2" t="inlineStr">
@@ -8107,7 +8383,7 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A promise aversive consequence for situation specific behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise aversive consequence for situation specific behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
@@ -8137,7 +8413,7 @@
       <c r="Q135" s="2" t="inlineStr"/>
       <c r="R135" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S135" s="2" t="inlineStr">
@@ -8165,7 +8441,7 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A promise aversive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise aversive consequence for behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -8199,7 +8475,7 @@
       <c r="Q136" s="2" t="inlineStr"/>
       <c r="R136" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S136" s="2" t="inlineStr">
@@ -8227,7 +8503,7 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A promise aversive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process. </t>
+          <t xml:space="preserve">A &lt;promise aversive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process. </t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -8257,7 +8533,7 @@
       <c r="Q137" s="2" t="inlineStr"/>
       <c r="R137" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S137" s="2" t="inlineStr">
@@ -8285,7 +8561,7 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A promise aversive consequence for situation specific behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise aversive consequence for situation specific behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -8319,7 +8595,7 @@
       <c r="Q138" s="2" t="inlineStr"/>
       <c r="R138" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S138" s="2" t="inlineStr">
@@ -8347,7 +8623,7 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence BCT that promises a future consequence contingent on performing or not performing the behaviour.</t>
+          <t>A &lt;behavioural consequence BCT&gt; that promises a future consequence contingent on performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -8375,7 +8651,11 @@
       <c r="O139" s="2" t="inlineStr"/>
       <c r="P139" s="2" t="inlineStr"/>
       <c r="Q139" s="2" t="inlineStr"/>
-      <c r="R139" s="2" t="inlineStr"/>
+      <c r="R139" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S139" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8401,7 +8681,7 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An outcome consequence BCT that promises a future consequence contingent on an outcome of performing or not performing the behaviour. </t>
+          <t xml:space="preserve">An &lt;outcome consequence BCT&gt; that promises a future consequence contingent on an outcome of performing or not performing the behaviour. </t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -8429,7 +8709,11 @@
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr"/>
       <c r="Q140" s="2" t="inlineStr"/>
-      <c r="R140" s="2" t="inlineStr"/>
+      <c r="R140" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S140" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8455,7 +8739,7 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT that promises the consequence will be provided for the behaviour that is different from the unwanted behaviour.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; that promises the consequence will be provided for the behaviour that is different from the unwanted behaviour.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -8485,7 +8769,7 @@
       <c r="Q141" s="2" t="inlineStr"/>
       <c r="R141" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S141" s="2" t="inlineStr">
@@ -8513,7 +8797,7 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT where the consequence is provided as the performance gradually gets closer to the behaviour.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; where the consequence is provided as the performance gradually gets closer to the behaviour.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
@@ -8543,7 +8827,7 @@
       <c r="Q142" s="2" t="inlineStr"/>
       <c r="R142" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S142" s="2" t="inlineStr">
@@ -8571,7 +8855,7 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A promise consequence for behaviour BCT where the consequence is positive.</t>
+          <t>A &lt;promise consequence for behaviour BCT&gt; where the consequence is positive.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
@@ -8609,7 +8893,7 @@
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S143" s="2" t="inlineStr">
@@ -8637,7 +8921,7 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT in which the consequence will be provided for performing the final behaviour in a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; in which the consequence will be provided for performing the final behaviour in a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
@@ -8667,7 +8951,7 @@
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S144" s="2" t="inlineStr">
@@ -8695,7 +8979,7 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT that promises the consequence will be provided for the behaviour that is incompatible with the unwanted behaviour.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; that promises the consequence will be provided for the behaviour that is incompatible with the unwanted behaviour.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
@@ -8723,7 +9007,11 @@
       <c r="O145" s="2" t="inlineStr"/>
       <c r="P145" s="2" t="inlineStr"/>
       <c r="Q145" s="2" t="inlineStr"/>
-      <c r="R145" s="2" t="inlineStr"/>
+      <c r="R145" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S145" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8749,7 +9037,7 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>A promise consequence for outcome of behaviour BCT where the consequence is positive</t>
+          <t>A &lt;promise consequence for outcome of behaviour BCT&gt; where the consequence is positive</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
@@ -8783,7 +9071,7 @@
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S146" s="2" t="inlineStr">
@@ -8811,7 +9099,7 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
@@ -8839,7 +9127,11 @@
       <c r="O147" s="2" t="inlineStr"/>
       <c r="P147" s="2" t="inlineStr"/>
       <c r="Q147" s="2" t="inlineStr"/>
-      <c r="R147" s="2" t="inlineStr"/>
+      <c r="R147" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S147" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8865,7 +9157,7 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for alternative behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise positive consequence for alternative behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
@@ -8893,7 +9185,11 @@
       <c r="O148" s="2" t="inlineStr"/>
       <c r="P148" s="2" t="inlineStr"/>
       <c r="Q148" s="2" t="inlineStr"/>
-      <c r="R148" s="2" t="inlineStr"/>
+      <c r="R148" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S148" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8919,7 +9215,7 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A promise positive consequence for approximating behaviour BCT in which the consequence is money, vouchers or other valued objects. </t>
+          <t xml:space="preserve">A &lt;promise positive consequence for approximating behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects. </t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
@@ -8947,7 +9243,11 @@
       <c r="O149" s="2" t="inlineStr"/>
       <c r="P149" s="2" t="inlineStr"/>
       <c r="Q149" s="2" t="inlineStr"/>
-      <c r="R149" s="2" t="inlineStr"/>
+      <c r="R149" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S149" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8973,7 +9273,7 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
@@ -9007,7 +9307,7 @@
       <c r="Q150" s="2" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S150" s="2" t="inlineStr">
@@ -9035,7 +9335,7 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for completion of behavioural sequence BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise positive consequence for completion of behavioural sequence BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -9063,7 +9363,11 @@
       <c r="O151" s="2" t="inlineStr"/>
       <c r="P151" s="2" t="inlineStr"/>
       <c r="Q151" s="2" t="inlineStr"/>
-      <c r="R151" s="2" t="inlineStr"/>
+      <c r="R151" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S151" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9089,7 +9393,7 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for incompatible behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise positive consequence for incompatible behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
@@ -9117,7 +9421,11 @@
       <c r="O152" s="2" t="inlineStr"/>
       <c r="P152" s="2" t="inlineStr"/>
       <c r="Q152" s="2" t="inlineStr"/>
-      <c r="R152" s="2" t="inlineStr"/>
+      <c r="R152" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S152" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9143,7 +9451,7 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise positive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
@@ -9167,7 +9475,11 @@
       <c r="O153" s="2" t="inlineStr"/>
       <c r="P153" s="2" t="inlineStr"/>
       <c r="Q153" s="2" t="inlineStr"/>
-      <c r="R153" s="2" t="inlineStr"/>
+      <c r="R153" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S153" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9193,7 +9505,7 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for situation specific behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise positive consequence for situation specific behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
@@ -9221,7 +9533,11 @@
       <c r="O154" s="2" t="inlineStr"/>
       <c r="P154" s="2" t="inlineStr"/>
       <c r="Q154" s="2" t="inlineStr"/>
-      <c r="R154" s="2" t="inlineStr"/>
+      <c r="R154" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S154" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9247,7 +9563,7 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for alternative behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise positive consequence for alternative behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
@@ -9279,7 +9595,11 @@
       <c r="O155" s="2" t="inlineStr"/>
       <c r="P155" s="2" t="inlineStr"/>
       <c r="Q155" s="2" t="inlineStr"/>
-      <c r="R155" s="2" t="inlineStr"/>
+      <c r="R155" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S155" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9305,7 +9625,7 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for approximating behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise positive consequence for approximating behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
@@ -9337,7 +9657,11 @@
       <c r="O156" s="2" t="inlineStr"/>
       <c r="P156" s="2" t="inlineStr"/>
       <c r="Q156" s="2" t="inlineStr"/>
-      <c r="R156" s="2" t="inlineStr"/>
+      <c r="R156" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S156" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9363,7 +9687,7 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
@@ -9401,7 +9725,7 @@
       <c r="Q157" s="2" t="inlineStr"/>
       <c r="R157" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S157" s="2" t="inlineStr">
@@ -9429,7 +9753,7 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for completion of behavioural sequence BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise positive consequence for completion of behavioural sequence BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
@@ -9461,7 +9785,11 @@
       <c r="O158" s="2" t="inlineStr"/>
       <c r="P158" s="2" t="inlineStr"/>
       <c r="Q158" s="2" t="inlineStr"/>
-      <c r="R158" s="2" t="inlineStr"/>
+      <c r="R158" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S158" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9487,7 +9815,7 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for incompatible behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise positive consequence for incompatible behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
@@ -9519,7 +9847,11 @@
       <c r="O159" s="2" t="inlineStr"/>
       <c r="P159" s="2" t="inlineStr"/>
       <c r="Q159" s="2" t="inlineStr"/>
-      <c r="R159" s="2" t="inlineStr"/>
+      <c r="R159" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S159" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9545,7 +9877,7 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A promise positive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process. </t>
+          <t xml:space="preserve">A &lt;promise positive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process. </t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -9573,7 +9905,11 @@
       <c r="O160" s="2" t="inlineStr"/>
       <c r="P160" s="2" t="inlineStr"/>
       <c r="Q160" s="2" t="inlineStr"/>
-      <c r="R160" s="2" t="inlineStr"/>
+      <c r="R160" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S160" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9599,7 +9935,7 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for situation specific behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise positive consequence for situation specific behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
@@ -9631,7 +9967,11 @@
       <c r="O161" s="2" t="inlineStr"/>
       <c r="P161" s="2" t="inlineStr"/>
       <c r="Q161" s="2" t="inlineStr"/>
-      <c r="R161" s="2" t="inlineStr"/>
+      <c r="R161" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S161" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9657,7 +9997,7 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>A promise aversive consequence for behaviour BCT that promises to provide the consequence at increasingly less frequent intervals.</t>
+          <t>A &lt;promise aversive consequence for behaviour BCT&gt; that promises to provide the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
@@ -9687,7 +10027,7 @@
       <c r="Q162" s="2" t="inlineStr"/>
       <c r="R162" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S162" s="2" t="inlineStr">
@@ -9715,7 +10055,7 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>A promise reduced frequency of aversive consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise reduced frequency of aversive consequence for behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
@@ -9745,7 +10085,7 @@
       <c r="Q163" s="2" t="inlineStr"/>
       <c r="R163" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S163" s="2" t="inlineStr">
@@ -9773,7 +10113,7 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>A promise reduced frequency of aversive consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise reduced frequency of aversive consequence for behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -9807,7 +10147,7 @@
       <c r="Q164" s="2" t="inlineStr"/>
       <c r="R164" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S164" s="2" t="inlineStr">
@@ -9835,7 +10175,7 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT that promises to provide the consequence at increasingly less frequent intervals.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; that promises to provide the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
@@ -9863,7 +10203,11 @@
       <c r="O165" s="2" t="inlineStr"/>
       <c r="P165" s="2" t="inlineStr"/>
       <c r="Q165" s="2" t="inlineStr"/>
-      <c r="R165" s="2" t="inlineStr"/>
+      <c r="R165" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S165" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9889,7 +10233,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>A promise reduced frequency of positive consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise reduced frequency of positive consequence for behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -9917,7 +10261,11 @@
       <c r="O166" s="2" t="inlineStr"/>
       <c r="P166" s="2" t="inlineStr"/>
       <c r="Q166" s="2" t="inlineStr"/>
-      <c r="R166" s="2" t="inlineStr"/>
+      <c r="R166" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S166" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9943,7 +10291,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A promise reduced frequency of positive consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise reduced frequency of positive consequence for behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -9975,7 +10323,11 @@
       <c r="O167" s="2" t="inlineStr"/>
       <c r="P167" s="2" t="inlineStr"/>
       <c r="Q167" s="2" t="inlineStr"/>
-      <c r="R167" s="2" t="inlineStr"/>
+      <c r="R167" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S167" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10001,7 +10353,7 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove consequence for behaviour BCT where the consequence is aversive.</t>
+          <t>A &lt;promise to remove consequence for behaviour BCT&gt; where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -10031,7 +10383,7 @@
       <c r="Q168" s="2" t="inlineStr"/>
       <c r="R168" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S168" s="2" t="inlineStr">
@@ -10059,7 +10411,7 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove consequence for outcome of behaviour BCT where the consequence is aversive.</t>
+          <t>A &lt;promise to remove consequence for outcome of behaviour BCT&gt; where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
@@ -10089,7 +10441,7 @@
       <c r="Q169" s="2" t="inlineStr"/>
       <c r="R169" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S169" s="2" t="inlineStr">
@@ -10117,7 +10469,7 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove aversive consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise to remove aversive consequence for behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
@@ -10147,7 +10499,7 @@
       <c r="Q170" s="2" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S170" s="2" t="inlineStr">
@@ -10175,7 +10527,7 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove aversive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise to remove aversive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -10205,7 +10557,7 @@
       <c r="Q171" s="2" t="inlineStr"/>
       <c r="R171" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S171" s="2" t="inlineStr">
@@ -10233,7 +10585,7 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove aversive consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
+          <t>A &lt;promise to remove aversive consequence for behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -10267,7 +10619,7 @@
       <c r="Q172" s="2" t="inlineStr"/>
       <c r="R172" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S172" s="2" t="inlineStr">
@@ -10295,7 +10647,7 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove aversive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise to remove aversive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
@@ -10329,7 +10681,7 @@
       <c r="Q173" s="2" t="inlineStr"/>
       <c r="R173" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S173" s="2" t="inlineStr">
@@ -10357,7 +10709,7 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence BCT that promises future removal of a consequence contingent on performing or not performing the behaviour.</t>
+          <t>A &lt;behavioural consequence BCT&gt; that promises future removal of a consequence contingent on performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -10381,7 +10733,11 @@
       <c r="O174" s="2" t="inlineStr"/>
       <c r="P174" s="2" t="inlineStr"/>
       <c r="Q174" s="2" t="inlineStr"/>
-      <c r="R174" s="2" t="inlineStr"/>
+      <c r="R174" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S174" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10407,7 +10763,7 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>An outcome consequence BCT that promises future removal of a consequence contingent on an outcome of performing or not performing the behaviour.</t>
+          <t>An &lt;outcome consequence BCT&gt; that promises future removal of a consequence contingent on an outcome of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
@@ -10431,7 +10787,11 @@
       <c r="O175" s="2" t="inlineStr"/>
       <c r="P175" s="2" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr"/>
-      <c r="R175" s="2" t="inlineStr"/>
+      <c r="R175" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S175" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10457,7 +10817,7 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove consequence for behaviour BCT where the consequence is positive.</t>
+          <t>A &lt;promise to remove consequence for behaviour BCT&gt; where the consequence is positive.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
@@ -10489,7 +10849,11 @@
       <c r="O176" s="2" t="inlineStr"/>
       <c r="P176" s="2" t="inlineStr"/>
       <c r="Q176" s="2" t="inlineStr"/>
-      <c r="R176" s="2" t="inlineStr"/>
+      <c r="R176" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S176" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10515,7 +10879,7 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove consequence for outcome of behaviour BCT where the consequence is positive.</t>
+          <t>A &lt;promise to remove consequence for outcome of behaviour BCT&gt; where the consequence is positive.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
@@ -10543,7 +10907,11 @@
       <c r="O177" s="2" t="inlineStr"/>
       <c r="P177" s="2" t="inlineStr"/>
       <c r="Q177" s="2" t="inlineStr"/>
-      <c r="R177" s="2" t="inlineStr"/>
+      <c r="R177" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S177" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10569,7 +10937,7 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove positive consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise to remove positive consequence for behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -10597,7 +10965,11 @@
       <c r="O178" s="2" t="inlineStr"/>
       <c r="P178" s="2" t="inlineStr"/>
       <c r="Q178" s="2" t="inlineStr"/>
-      <c r="R178" s="2" t="inlineStr"/>
+      <c r="R178" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S178" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10623,7 +10995,7 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove positive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise to remove positive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -10651,7 +11023,11 @@
       <c r="O179" s="2" t="inlineStr"/>
       <c r="P179" s="2" t="inlineStr"/>
       <c r="Q179" s="2" t="inlineStr"/>
-      <c r="R179" s="2" t="inlineStr"/>
+      <c r="R179" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S179" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10677,7 +11053,7 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove positive consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
+          <t>A &lt;promise to remove positive consequence for behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -10709,7 +11085,11 @@
       <c r="O180" s="2" t="inlineStr"/>
       <c r="P180" s="2" t="inlineStr"/>
       <c r="Q180" s="2" t="inlineStr"/>
-      <c r="R180" s="2" t="inlineStr"/>
+      <c r="R180" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S180" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10735,7 +11115,7 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove positive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise to remove positive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
@@ -10767,7 +11147,11 @@
       <c r="O181" s="2" t="inlineStr"/>
       <c r="P181" s="2" t="inlineStr"/>
       <c r="Q181" s="2" t="inlineStr"/>
-      <c r="R181" s="2" t="inlineStr"/>
+      <c r="R181" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S181" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10793,7 +11177,7 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique promoting medicines or other drugs.</t>
+          <t>A &lt;behaviour change technique&gt; promoting medicines or other drugs.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -10827,7 +11211,7 @@
       <c r="Q182" s="2" t="inlineStr"/>
       <c r="R182" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S182" s="2" t="inlineStr">
@@ -10855,7 +11239,7 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that guides the person to imagine and compare the consequences of performing and not performing the behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that guides the person to imagine and compare the consequences of performing and not performing the behaviour.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -10889,7 +11273,7 @@
       <c r="Q183" s="2" t="inlineStr"/>
       <c r="R183" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S183" s="2" t="inlineStr">
@@ -10917,7 +11301,7 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>A prompt thinking related to successful performance BCT that prompts the person to think about previous successful performance of the behaviour.</t>
+          <t>A &lt;prompt thinking related to successful performance BCT&gt; that prompts the person to think about previous successful performance of the behaviour.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -10945,7 +11329,11 @@
       <c r="O184" s="2" t="inlineStr"/>
       <c r="P184" s="2" t="inlineStr"/>
       <c r="Q184" s="2" t="inlineStr"/>
-      <c r="R184" s="2" t="inlineStr"/>
+      <c r="R184" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S184" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10971,7 +11359,7 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour change technique that prompts the person to focus on their mental representation of themself. </t>
+          <t xml:space="preserve">A &lt;behaviour change technique&gt; that prompts the person to focus on their mental representation of themself. </t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -11001,7 +11389,7 @@
       <c r="Q185" s="2" t="inlineStr"/>
       <c r="R185" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S185" s="2" t="inlineStr">
@@ -11029,7 +11417,7 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that involves introducing an external stimulus to facilitate the behaviour for which an intention has previously been formed.</t>
+          <t>An &lt;alter external stimulus BCT&gt; that involves introducing an external stimulus to facilitate the behaviour for which an intention has previously been formed.</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -11067,7 +11455,7 @@
       <c r="Q186" s="2" t="inlineStr"/>
       <c r="R186" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S186" s="2" t="inlineStr">
@@ -11095,7 +11483,7 @@
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A prompt thinking related to successful performance BCT that prompts the person to practise imagining performing the behaviour well in a relevant context.</t>
+          <t>A &lt;prompt thinking related to successful performance BCT&gt; that prompts the person to practise imagining performing the behaviour well in a relevant context.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -11123,7 +11511,11 @@
       <c r="O187" s="2" t="inlineStr"/>
       <c r="P187" s="2" t="inlineStr"/>
       <c r="Q187" s="2" t="inlineStr"/>
-      <c r="R187" s="2" t="inlineStr"/>
+      <c r="R187" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S187" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11149,7 +11541,7 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A prompt thinking related to successful performance BCT that promotes the use of positive self-talk before or during the behaviour. </t>
+          <t xml:space="preserve">A &lt;prompt thinking related to successful performance BCT&gt; that promotes the use of positive self-talk before or during the behaviour. </t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
@@ -11181,7 +11573,11 @@
       <c r="O188" s="2" t="inlineStr"/>
       <c r="P188" s="2" t="inlineStr"/>
       <c r="Q188" s="2" t="inlineStr"/>
-      <c r="R188" s="2" t="inlineStr"/>
+      <c r="R188" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S188" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11207,7 +11603,7 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>An awareness of other people's thoughts, feelings and actions BCT that draws attention to other people's behaviour and compares it with the person's own behaviour.</t>
+          <t>An &lt;awareness of other people's thoughts, feelings and actions BCT&gt; that draws attention to other people's behaviour and compares it with the person's own behaviour.</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
@@ -11245,7 +11641,7 @@
       <c r="Q189" s="2" t="inlineStr"/>
       <c r="R189" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S189" s="2" t="inlineStr">
@@ -11273,7 +11669,7 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that prompts thinking relating to successful performance of the behaviour.</t>
+          <t>A &lt;behaviour change technique&gt; that prompts thinking relating to successful performance of the behaviour.</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
@@ -11297,7 +11693,11 @@
       <c r="O190" s="2" t="inlineStr"/>
       <c r="P190" s="2" t="inlineStr"/>
       <c r="Q190" s="2" t="inlineStr"/>
-      <c r="R190" s="2" t="inlineStr"/>
+      <c r="R190" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S190" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11323,7 +11723,7 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A provide consequence for behaviour BCT where the consequence is aversive.</t>
+          <t>A &lt;provide consequence for behaviour BCT&gt; where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -11361,7 +11761,7 @@
       <c r="Q191" s="2" t="inlineStr"/>
       <c r="R191" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S191" s="2" t="inlineStr">
@@ -11389,7 +11789,7 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A provide consequence for outcome of behaviour BCT where the consequence is aversive.</t>
+          <t>A &lt;provide consequence for outcome of behaviour BCT&gt; where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
@@ -11423,7 +11823,7 @@
       <c r="Q192" s="2" t="inlineStr"/>
       <c r="R192" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S192" s="2" t="inlineStr">
@@ -11451,7 +11851,7 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for behaviour BCT that provides the consequence for the behaviour in one situation but not in another.</t>
+          <t>A &lt;provide aversive consequence for behaviour BCT&gt; that provides the consequence for the behaviour in one situation but not in another.</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -11481,7 +11881,7 @@
       <c r="Q193" s="2" t="inlineStr"/>
       <c r="R193" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S193" s="2" t="inlineStr">
@@ -11509,7 +11909,7 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide aversive consequence for behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -11539,7 +11939,7 @@
       <c r="Q194" s="2" t="inlineStr"/>
       <c r="R194" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S194" s="2" t="inlineStr">
@@ -11567,7 +11967,7 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide aversive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -11597,7 +11997,7 @@
       <c r="Q195" s="2" t="inlineStr"/>
       <c r="R195" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S195" s="2" t="inlineStr">
@@ -11625,7 +12025,7 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for situation specific behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide aversive consequence for situation specific behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -11655,7 +12055,7 @@
       <c r="Q196" s="2" t="inlineStr"/>
       <c r="R196" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S196" s="2" t="inlineStr">
@@ -11683,7 +12083,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide aversive consequence for behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -11717,7 +12117,7 @@
       <c r="Q197" s="2" t="inlineStr"/>
       <c r="R197" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S197" s="2" t="inlineStr">
@@ -11745,7 +12145,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide aversive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -11779,7 +12179,7 @@
       <c r="Q198" s="2" t="inlineStr"/>
       <c r="R198" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S198" s="2" t="inlineStr">
@@ -11807,7 +12207,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for situation specific behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide aversive consequence for situation specific behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -11841,7 +12241,7 @@
       <c r="Q199" s="2" t="inlineStr"/>
       <c r="R199" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S199" s="2" t="inlineStr">
@@ -11869,7 +12269,7 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>A provide feedback BCT that provides information about the functioning or state of the person's body, based on information collected by an external monitoring device.</t>
+          <t>A &lt;provide feedback BCT&gt; that provides information about the functioning or state of the person's body, based on information collected by an external monitoring device.</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -11907,7 +12307,7 @@
       <c r="Q200" s="2" t="inlineStr"/>
       <c r="R200" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S200" s="2" t="inlineStr">
@@ -11935,7 +12335,7 @@
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence BCT that provides a consequence for the behaviour.</t>
+          <t>A &lt;behavioural consequence BCT&gt; that provides a consequence for the behaviour.</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
@@ -11959,7 +12359,11 @@
       <c r="O201" s="2" t="inlineStr"/>
       <c r="P201" s="2" t="inlineStr"/>
       <c r="Q201" s="2" t="inlineStr"/>
-      <c r="R201" s="2" t="inlineStr"/>
+      <c r="R201" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S201" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11985,7 +12389,7 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>An outcome consequence BCT that provides a consequence for an outcome resulting from performing or not performing the behaviour.</t>
+          <t>An &lt;outcome consequence BCT&gt; that provides a consequence for an outcome resulting from performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -12009,7 +12413,11 @@
       <c r="O202" s="2" t="inlineStr"/>
       <c r="P202" s="2" t="inlineStr"/>
       <c r="Q202" s="2" t="inlineStr"/>
-      <c r="R202" s="2" t="inlineStr"/>
+      <c r="R202" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S202" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12035,7 +12443,7 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>A restructure the physical environment BCT that organises an alternative focus for attention for the person to avoid internal or external states or events associated with an unwanted behaviour.</t>
+          <t>A &lt;restructure the physical environment BCT&gt; that organises an alternative focus for attention for the person to avoid internal or external states or events associated with an unwanted behaviour.</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
@@ -12069,7 +12477,7 @@
       <c r="Q203" s="2" t="inlineStr"/>
       <c r="R203" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S203" s="2" t="inlineStr">
@@ -12097,7 +12505,7 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT in which feedback about the behaviour is provided.</t>
+          <t>A &lt;monitoring BCT&gt; in which feedback about the behaviour is provided.</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -12131,7 +12539,7 @@
       <c r="Q204" s="2" t="inlineStr"/>
       <c r="R204" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S204" s="2" t="inlineStr">
@@ -12159,7 +12567,7 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>A provide feedback BCT that provides information about the person's previous performance of the behaviour.</t>
+          <t>A &lt;provide feedback BCT&gt; that provides information about the person's previous performance of the behaviour.</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -12187,7 +12595,11 @@
       <c r="O205" s="2" t="inlineStr"/>
       <c r="P205" s="2" t="inlineStr"/>
       <c r="Q205" s="2" t="inlineStr"/>
-      <c r="R205" s="2" t="inlineStr"/>
+      <c r="R205" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S205" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12213,7 +12625,7 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>A provide feedback BCT that provides information about an outcome of the person's previous performance of the behaviour.</t>
+          <t>A &lt;provide feedback BCT&gt; that provides information about an outcome of the person's previous performance of the behaviour.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -12241,7 +12653,11 @@
       <c r="O206" s="2" t="inlineStr"/>
       <c r="P206" s="2" t="inlineStr"/>
       <c r="Q206" s="2" t="inlineStr"/>
-      <c r="R206" s="2" t="inlineStr"/>
+      <c r="R206" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S206" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12267,7 +12683,7 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>A promote pharmacological support BCT that provides the person with medicines or other drugs.</t>
+          <t>A &lt;promote pharmacological support BCT&gt; that provides the person with medicines or other drugs.</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
@@ -12295,7 +12711,11 @@
       <c r="O207" s="2" t="inlineStr"/>
       <c r="P207" s="2" t="inlineStr"/>
       <c r="Q207" s="2" t="inlineStr"/>
-      <c r="R207" s="2" t="inlineStr"/>
+      <c r="R207" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S207" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12321,7 +12741,7 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A provide positive consequence for behaviour BCT that provides the consequence for a behaviour that is different from the unwanted behaviour. </t>
+          <t xml:space="preserve">A &lt;provide positive consequence for behaviour BCT&gt; that provides the consequence for a behaviour that is different from the unwanted behaviour. </t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
@@ -12359,7 +12779,7 @@
       <c r="Q208" s="2" t="inlineStr"/>
       <c r="R208" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S208" s="2" t="inlineStr">
@@ -12387,7 +12807,7 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT where the consequence is provided as the performance gradually gets closer to the behaviour.</t>
+          <t>A &lt;provide positive consequence for behaviour BCT&gt; where the consequence is provided as the performance gradually gets closer to the behaviour.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
@@ -12425,7 +12845,7 @@
       <c r="Q209" s="2" t="inlineStr"/>
       <c r="R209" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S209" s="2" t="inlineStr">
@@ -12453,7 +12873,7 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>A provide consequence for behaviour BCT where the consequence is positive.</t>
+          <t>A &lt;provide consequence for behaviour BCT&gt; where the consequence is positive.</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
@@ -12491,7 +12911,7 @@
       <c r="Q210" s="2" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S210" s="2" t="inlineStr">
@@ -12519,7 +12939,7 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT where the consequence is provided for performing the final behaviour in a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
+          <t>A &lt;provide positive consequence for behaviour BCT&gt; where the consequence is provided for performing the final behaviour in a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
@@ -12553,7 +12973,7 @@
       <c r="Q211" s="2" t="inlineStr"/>
       <c r="R211" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S211" s="2" t="inlineStr">
@@ -12581,7 +13001,7 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT that provides the consequence for a behaviour that is incompatible with the unwanted behaviour.</t>
+          <t>A &lt;provide positive consequence for behaviour BCT&gt; that provides the consequence for a behaviour that is incompatible with the unwanted behaviour.</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -12619,7 +13039,7 @@
       <c r="Q212" s="2" t="inlineStr"/>
       <c r="R212" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S212" s="2" t="inlineStr">
@@ -12647,7 +13067,7 @@
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>A provide consequence for outcome of behaviour BCT where the consequence is positive.</t>
+          <t>A &lt;provide consequence for outcome of behaviour BCT&gt; where the consequence is positive.</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -12683,7 +13103,11 @@
       <c r="O213" s="2" t="inlineStr"/>
       <c r="P213" s="2" t="inlineStr"/>
       <c r="Q213" s="2" t="inlineStr"/>
-      <c r="R213" s="2" t="inlineStr"/>
+      <c r="R213" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S213" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12709,7 +13133,7 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT that provides the consequence for the behaviour in one situation but not in another.</t>
+          <t>A &lt;provide positive consequence for behaviour BCT&gt; that provides the consequence for the behaviour in one situation but not in another.</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr"/>
@@ -12741,7 +13165,11 @@
       <c r="O214" s="2" t="inlineStr"/>
       <c r="P214" s="2" t="inlineStr"/>
       <c r="Q214" s="2" t="inlineStr"/>
-      <c r="R214" s="2" t="inlineStr"/>
+      <c r="R214" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S214" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12767,7 +13195,7 @@
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for alternative behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide positive consequence for alternative behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr"/>
@@ -12795,7 +13223,11 @@
       <c r="O215" s="2" t="inlineStr"/>
       <c r="P215" s="2" t="inlineStr"/>
       <c r="Q215" s="2" t="inlineStr"/>
-      <c r="R215" s="2" t="inlineStr"/>
+      <c r="R215" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S215" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12821,7 +13253,7 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for approximating behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide positive consequence for approximating behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
@@ -12849,7 +13281,11 @@
       <c r="O216" s="2" t="inlineStr"/>
       <c r="P216" s="2" t="inlineStr"/>
       <c r="Q216" s="2" t="inlineStr"/>
-      <c r="R216" s="2" t="inlineStr"/>
+      <c r="R216" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S216" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12875,7 +13311,7 @@
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide positive consequence for behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
@@ -12909,7 +13345,7 @@
       <c r="Q217" s="2" t="inlineStr"/>
       <c r="R217" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S217" s="2" t="inlineStr">
@@ -12937,7 +13373,7 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for completion of behavioural sequence BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide positive consequence for completion of behavioural sequence BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -12965,7 +13401,11 @@
       <c r="O218" s="2" t="inlineStr"/>
       <c r="P218" s="2" t="inlineStr"/>
       <c r="Q218" s="2" t="inlineStr"/>
-      <c r="R218" s="2" t="inlineStr"/>
+      <c r="R218" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S218" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12991,7 +13431,7 @@
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for incompatible behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide positive consequence for incompatible behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -13019,7 +13459,11 @@
       <c r="O219" s="2" t="inlineStr"/>
       <c r="P219" s="2" t="inlineStr"/>
       <c r="Q219" s="2" t="inlineStr"/>
-      <c r="R219" s="2" t="inlineStr"/>
+      <c r="R219" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S219" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13045,7 +13489,7 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide positive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
@@ -13075,7 +13519,7 @@
       <c r="Q220" s="2" t="inlineStr"/>
       <c r="R220" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S220" s="2" t="inlineStr">
@@ -13103,7 +13547,7 @@
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for situation specific behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide positive consequence for situation specific behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -13131,7 +13575,11 @@
       <c r="O221" s="2" t="inlineStr"/>
       <c r="P221" s="2" t="inlineStr"/>
       <c r="Q221" s="2" t="inlineStr"/>
-      <c r="R221" s="2" t="inlineStr"/>
+      <c r="R221" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S221" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13157,7 +13605,7 @@
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for alternative behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide positive consequence for alternative behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
@@ -13189,7 +13637,11 @@
       <c r="O222" s="2" t="inlineStr"/>
       <c r="P222" s="2" t="inlineStr"/>
       <c r="Q222" s="2" t="inlineStr"/>
-      <c r="R222" s="2" t="inlineStr"/>
+      <c r="R222" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S222" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13215,7 +13667,7 @@
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for approximating behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide positive consequence for approximating behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -13247,7 +13699,11 @@
       <c r="O223" s="2" t="inlineStr"/>
       <c r="P223" s="2" t="inlineStr"/>
       <c r="Q223" s="2" t="inlineStr"/>
-      <c r="R223" s="2" t="inlineStr"/>
+      <c r="R223" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S223" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13273,7 +13729,7 @@
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide positive consequence for behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr"/>
@@ -13311,7 +13767,7 @@
       <c r="Q224" s="2" t="inlineStr"/>
       <c r="R224" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S224" s="2" t="inlineStr">
@@ -13339,7 +13795,7 @@
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for completion of behavioural sequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide positive consequence for completion of behavioural sequence BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr"/>
@@ -13371,7 +13827,11 @@
       <c r="O225" s="2" t="inlineStr"/>
       <c r="P225" s="2" t="inlineStr"/>
       <c r="Q225" s="2" t="inlineStr"/>
-      <c r="R225" s="2" t="inlineStr"/>
+      <c r="R225" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S225" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13397,7 +13857,7 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for incompatible behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide positive consequence for incompatible behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr"/>
@@ -13429,7 +13889,11 @@
       <c r="O226" s="2" t="inlineStr"/>
       <c r="P226" s="2" t="inlineStr"/>
       <c r="Q226" s="2" t="inlineStr"/>
-      <c r="R226" s="2" t="inlineStr"/>
+      <c r="R226" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S226" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13455,7 +13919,7 @@
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide positive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
@@ -13487,7 +13951,11 @@
       <c r="O227" s="2" t="inlineStr"/>
       <c r="P227" s="2" t="inlineStr"/>
       <c r="Q227" s="2" t="inlineStr"/>
-      <c r="R227" s="2" t="inlineStr"/>
+      <c r="R227" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S227" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13513,7 +13981,7 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for  situation specific behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide positive consequence for  situation specific behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>
@@ -13545,7 +14013,11 @@
       <c r="O228" s="2" t="inlineStr"/>
       <c r="P228" s="2" t="inlineStr"/>
       <c r="Q228" s="2" t="inlineStr"/>
-      <c r="R228" s="2" t="inlineStr"/>
+      <c r="R228" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S228" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13571,7 +14043,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
+          <t>A &lt;provide aversive consequence for behaviour BCT&gt; that provides the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -13601,7 +14073,7 @@
       <c r="Q229" s="2" t="inlineStr"/>
       <c r="R229" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S229" s="2" t="inlineStr">
@@ -13629,7 +14101,7 @@
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>A provide aversive consequence for outcome of behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
+          <t>A &lt;provide aversive consequence for outcome of behaviour BCT&gt; that provides the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>
@@ -13659,7 +14131,7 @@
       <c r="Q230" s="2" t="inlineStr"/>
       <c r="R230" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S230" s="2" t="inlineStr">
@@ -13687,7 +14159,7 @@
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of aversive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide reduced frequency of aversive consequence for behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr"/>
@@ -13717,7 +14189,7 @@
       <c r="Q231" s="2" t="inlineStr"/>
       <c r="R231" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S231" s="2" t="inlineStr">
@@ -13745,7 +14217,7 @@
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of aversive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide reduced frequency of aversive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr"/>
@@ -13775,7 +14247,7 @@
       <c r="Q232" s="2" t="inlineStr"/>
       <c r="R232" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S232" s="2" t="inlineStr">
@@ -13803,7 +14275,7 @@
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of aversive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide reduced frequency of aversive consequence for behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr"/>
@@ -13837,7 +14309,7 @@
       <c r="Q233" s="2" t="inlineStr"/>
       <c r="R233" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S233" s="2" t="inlineStr">
@@ -13865,7 +14337,7 @@
       </c>
       <c r="D234" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of aversive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide reduced frequency of aversive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E234" s="2" t="inlineStr"/>
@@ -13899,7 +14371,7 @@
       <c r="Q234" s="2" t="inlineStr"/>
       <c r="R234" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S234" s="2" t="inlineStr">
@@ -13927,7 +14399,7 @@
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
+          <t>A &lt;provide positive consequence for behaviour BCT&gt; that provides the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E235" s="2" t="inlineStr"/>
@@ -13959,7 +14431,11 @@
       <c r="O235" s="2" t="inlineStr"/>
       <c r="P235" s="2" t="inlineStr"/>
       <c r="Q235" s="2" t="inlineStr"/>
-      <c r="R235" s="2" t="inlineStr"/>
+      <c r="R235" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S235" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13985,7 +14461,7 @@
       </c>
       <c r="D236" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for outcome of behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
+          <t>A &lt;provide positive consequence for outcome of behaviour BCT&gt; that provides the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr"/>
@@ -14013,7 +14489,11 @@
       <c r="O236" s="2" t="inlineStr"/>
       <c r="P236" s="2" t="inlineStr"/>
       <c r="Q236" s="2" t="inlineStr"/>
-      <c r="R236" s="2" t="inlineStr"/>
+      <c r="R236" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S236" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14039,7 +14519,7 @@
       </c>
       <c r="D237" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of positive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide reduced frequency of positive consequence for behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E237" s="2" t="inlineStr"/>
@@ -14067,7 +14547,11 @@
       <c r="O237" s="2" t="inlineStr"/>
       <c r="P237" s="2" t="inlineStr"/>
       <c r="Q237" s="2" t="inlineStr"/>
-      <c r="R237" s="2" t="inlineStr"/>
+      <c r="R237" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S237" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14093,7 +14577,7 @@
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of positive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;provide reduced frequency of positive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr"/>
@@ -14121,7 +14605,11 @@
       <c r="O238" s="2" t="inlineStr"/>
       <c r="P238" s="2" t="inlineStr"/>
       <c r="Q238" s="2" t="inlineStr"/>
-      <c r="R238" s="2" t="inlineStr"/>
+      <c r="R238" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S238" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14147,7 +14635,7 @@
       </c>
       <c r="D239" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of positive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide reduced frequency of positive consequence for behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr"/>
@@ -14179,7 +14667,11 @@
       <c r="O239" s="2" t="inlineStr"/>
       <c r="P239" s="2" t="inlineStr"/>
       <c r="Q239" s="2" t="inlineStr"/>
-      <c r="R239" s="2" t="inlineStr"/>
+      <c r="R239" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S239" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14205,7 +14697,7 @@
       </c>
       <c r="D240" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of positive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;provide reduced frequency of positive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr"/>
@@ -14237,7 +14729,11 @@
       <c r="O240" s="2" t="inlineStr"/>
       <c r="P240" s="2" t="inlineStr"/>
       <c r="Q240" s="2" t="inlineStr"/>
-      <c r="R240" s="2" t="inlineStr"/>
+      <c r="R240" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S240" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14263,7 +14759,7 @@
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>A suggest different perspective on behaviour BCT that involves eliciting the person's beliefs about, and suggesting alternative beliefs about, the causes of the behaviour.</t>
+          <t>A &lt;suggest different perspective on behaviour BCT&gt; that involves eliciting the person's beliefs about, and suggesting alternative beliefs about, the causes of the behaviour.</t>
         </is>
       </c>
       <c r="E241" s="2" t="inlineStr"/>
@@ -14297,7 +14793,7 @@
       <c r="Q241" s="2" t="inlineStr"/>
       <c r="R241" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S241" s="2" t="inlineStr">
@@ -14325,7 +14821,7 @@
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT that records current performance of the behaviour with the person’s knowledge but without providing feedback about their behaviour.</t>
+          <t>A &lt;monitoring BCT&gt; that records current performance of the behaviour with the person’s knowledge but without providing feedback about their behaviour.</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr"/>
@@ -14363,7 +14859,7 @@
       <c r="Q242" s="2" t="inlineStr"/>
       <c r="R242" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S242" s="2" t="inlineStr">
@@ -14391,7 +14887,7 @@
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT that records an outcome of performing the behaviour with the person's knowledge but without providing feedback about the outcome.</t>
+          <t>A &lt;monitoring BCT&gt; that records an outcome of performing the behaviour with the person's knowledge but without providing feedback about the outcome.</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr"/>
@@ -14425,7 +14921,7 @@
       <c r="Q243" s="2" t="inlineStr"/>
       <c r="R243" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S243" s="2" t="inlineStr">
@@ -14453,7 +14949,7 @@
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT in which cues for the behaviour are presented less frequently.</t>
+          <t>An &lt;alter external stimulus BCT&gt; in which cues for the behaviour are presented less frequently.</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr"/>
@@ -14489,7 +14985,11 @@
       <c r="O244" s="2" t="inlineStr"/>
       <c r="P244" s="2" t="inlineStr"/>
       <c r="Q244" s="2" t="inlineStr"/>
-      <c r="R244" s="2" t="inlineStr"/>
+      <c r="R244" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S244" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14515,7 +15015,7 @@
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>A restructure the physical environment BCT that reduces an alternative focus for attention for the person to concentrate on internal or external states or events associated with the behaviour.</t>
+          <t>A &lt;restructure the physical environment BCT&gt; that reduces an alternative focus for attention for the person to concentrate on internal or external states or events associated with the behaviour.</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -14543,7 +15043,11 @@
       <c r="O245" s="2" t="inlineStr"/>
       <c r="P245" s="2" t="inlineStr"/>
       <c r="Q245" s="2" t="inlineStr"/>
-      <c r="R245" s="2" t="inlineStr"/>
+      <c r="R245" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S245" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14569,7 +15073,7 @@
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An alter external stimulus BCT that reduces an external stimulus that signals the behaviour. </t>
+          <t xml:space="preserve">An &lt;alter external stimulus BCT&gt; that reduces an external stimulus that signals the behaviour. </t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr"/>
@@ -14603,7 +15107,7 @@
       <c r="Q246" s="2" t="inlineStr"/>
       <c r="R246" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S246" s="2" t="inlineStr">
@@ -14631,7 +15135,7 @@
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>A suggest different perspective on behaviour BCT that involves reattributing a person's successes to internal, stable or global factors or failures to external, unstable or specific factors.</t>
+          <t>A &lt;suggest different perspective on behaviour BCT&gt; that involves reattributing a person's successes to internal, stable or global factors or failures to external, unstable or specific factors.</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr"/>
@@ -14665,7 +15169,7 @@
       <c r="Q247" s="2" t="inlineStr"/>
       <c r="R247" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S247" s="2" t="inlineStr">
@@ -14693,7 +15197,7 @@
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>A prompt thinking related to successful performance BCT that reminds the person of their skills and abilities that are relevant to the performance of the behaviour.</t>
+          <t>A &lt;prompt thinking related to successful performance BCT&gt; that reminds the person of their skills and abilities that are relevant to the performance of the behaviour.</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr"/>
@@ -14717,7 +15221,11 @@
       <c r="O248" s="2" t="inlineStr"/>
       <c r="P248" s="2" t="inlineStr"/>
       <c r="Q248" s="2" t="inlineStr"/>
-      <c r="R248" s="2" t="inlineStr"/>
+      <c r="R248" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S248" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14743,7 +15251,7 @@
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>A remove consequence for behaviour BCT where the consequence is aversive.</t>
+          <t>A &lt;remove consequence for behaviour BCT&gt; where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E249" s="2" t="inlineStr"/>
@@ -14781,7 +15289,7 @@
       <c r="Q249" s="2" t="inlineStr"/>
       <c r="R249" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S249" s="2" t="inlineStr">
@@ -14809,7 +15317,7 @@
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>A remove consequence for outcome of behaviour BCT in which the consequence is aversive.</t>
+          <t>A &lt;remove consequence for outcome of behaviour BCT&gt; in which the consequence is aversive.</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr"/>
@@ -14843,7 +15351,7 @@
       <c r="Q250" s="2" t="inlineStr"/>
       <c r="R250" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S250" s="2" t="inlineStr">
@@ -14871,7 +15379,7 @@
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>A remove aversive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;remove aversive consequence for behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E251" s="2" t="inlineStr"/>
@@ -14901,7 +15409,7 @@
       <c r="Q251" s="2" t="inlineStr"/>
       <c r="R251" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S251" s="2" t="inlineStr">
@@ -14929,7 +15437,7 @@
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>A remove aversive consequence for outcome of behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;remove aversive consequence for outcome of behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr"/>
@@ -14959,7 +15467,7 @@
       <c r="Q252" s="2" t="inlineStr"/>
       <c r="R252" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S252" s="2" t="inlineStr">
@@ -14987,7 +15495,7 @@
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>A remove aversive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;remove aversive consequence for behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr"/>
@@ -15021,7 +15529,7 @@
       <c r="Q253" s="2" t="inlineStr"/>
       <c r="R253" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S253" s="2" t="inlineStr">
@@ -15049,7 +15557,7 @@
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>A remove aversive consequence for outcome of behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;remove aversive consequence for outcome of behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr"/>
@@ -15083,7 +15591,7 @@
       <c r="Q254" s="2" t="inlineStr"/>
       <c r="R254" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S254" s="2" t="inlineStr">
@@ -15111,7 +15619,7 @@
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that involves removing an aversive stimulus to bring about behaviour change.</t>
+          <t>An &lt;alter external stimulus BCT&gt; that involves removing an aversive stimulus to bring about behaviour change.</t>
         </is>
       </c>
       <c r="E255" s="2" t="inlineStr"/>
@@ -15143,7 +15651,11 @@
       <c r="O255" s="2" t="inlineStr"/>
       <c r="P255" s="2" t="inlineStr"/>
       <c r="Q255" s="2" t="inlineStr"/>
-      <c r="R255" s="2" t="inlineStr"/>
+      <c r="R255" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S255" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15169,7 +15681,7 @@
       </c>
       <c r="D256" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence BCT that removes a previously provided consequence for performing the behaviour.</t>
+          <t>A &lt;behavioural consequence BCT&gt; that removes a previously provided consequence for performing the behaviour.</t>
         </is>
       </c>
       <c r="E256" s="2" t="inlineStr"/>
@@ -15193,7 +15705,11 @@
       <c r="O256" s="2" t="inlineStr"/>
       <c r="P256" s="2" t="inlineStr"/>
       <c r="Q256" s="2" t="inlineStr"/>
-      <c r="R256" s="2" t="inlineStr"/>
+      <c r="R256" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S256" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15219,7 +15735,7 @@
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>An outcome consequence BCT that removes a previously provided consequence for an outcome resulting from performing or not performing the behaviour.</t>
+          <t>An &lt;outcome consequence BCT&gt; that removes a previously provided consequence for an outcome resulting from performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr"/>
@@ -15243,7 +15759,11 @@
       <c r="O257" s="2" t="inlineStr"/>
       <c r="P257" s="2" t="inlineStr"/>
       <c r="Q257" s="2" t="inlineStr"/>
-      <c r="R257" s="2" t="inlineStr"/>
+      <c r="R257" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S257" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15269,7 +15789,7 @@
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>A remove consequence for behaviour BCT where the consequence is positive.</t>
+          <t>A &lt;remove consequence for behaviour BCT&gt; where the consequence is positive.</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr"/>
@@ -15305,7 +15825,11 @@
       <c r="O258" s="2" t="inlineStr"/>
       <c r="P258" s="2" t="inlineStr"/>
       <c r="Q258" s="2" t="inlineStr"/>
-      <c r="R258" s="2" t="inlineStr"/>
+      <c r="R258" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S258" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15331,7 +15855,7 @@
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>A remove consequence for outcome of behaviour BCT in which the consequence is positive.</t>
+          <t>A &lt;remove consequence for outcome of behaviour BCT&gt; in which the consequence is positive.</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr"/>
@@ -15363,7 +15887,11 @@
       <c r="O259" s="2" t="inlineStr"/>
       <c r="P259" s="2" t="inlineStr"/>
       <c r="Q259" s="2" t="inlineStr"/>
-      <c r="R259" s="2" t="inlineStr"/>
+      <c r="R259" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S259" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15389,7 +15917,7 @@
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>A remove positive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;remove positive consequence for behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
@@ -15417,7 +15945,11 @@
       <c r="O260" s="2" t="inlineStr"/>
       <c r="P260" s="2" t="inlineStr"/>
       <c r="Q260" s="2" t="inlineStr"/>
-      <c r="R260" s="2" t="inlineStr"/>
+      <c r="R260" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S260" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15443,7 +15975,7 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>A remove positive consequence for outcome of behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;remove positive consequence for outcome of behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
@@ -15471,7 +16003,11 @@
       <c r="O261" s="2" t="inlineStr"/>
       <c r="P261" s="2" t="inlineStr"/>
       <c r="Q261" s="2" t="inlineStr"/>
-      <c r="R261" s="2" t="inlineStr"/>
+      <c r="R261" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S261" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15497,7 +16033,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>A remove positive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;remove positive consequence for behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
@@ -15529,7 +16065,11 @@
       <c r="O262" s="2" t="inlineStr"/>
       <c r="P262" s="2" t="inlineStr"/>
       <c r="Q262" s="2" t="inlineStr"/>
-      <c r="R262" s="2" t="inlineStr"/>
+      <c r="R262" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S262" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15555,7 +16095,7 @@
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>A remove positive consequence for outcome of behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;remove positive consequence for outcome of behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr"/>
@@ -15587,7 +16127,11 @@
       <c r="O263" s="2" t="inlineStr"/>
       <c r="P263" s="2" t="inlineStr"/>
       <c r="Q263" s="2" t="inlineStr"/>
-      <c r="R263" s="2" t="inlineStr"/>
+      <c r="R263" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S263" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15613,7 +16157,7 @@
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that alters the environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
+          <t>A &lt;behaviour change technique&gt; that alters the environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr"/>
@@ -15637,7 +16181,11 @@
       <c r="O264" s="2" t="inlineStr"/>
       <c r="P264" s="2" t="inlineStr"/>
       <c r="Q264" s="2" t="inlineStr"/>
-      <c r="R264" s="2" t="inlineStr"/>
+      <c r="R264" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S264" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15663,7 +16211,7 @@
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>A restructure the environment BCT that alters the physical environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
+          <t>A &lt;restructure the environment BCT&gt; that alters the physical environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr"/>
@@ -15701,7 +16249,7 @@
       <c r="Q265" s="2" t="inlineStr"/>
       <c r="R265" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S265" s="2" t="inlineStr">
@@ -15729,7 +16277,7 @@
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>A restructure the environment BCT that alters the social environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
+          <t>A &lt;restructure the environment BCT&gt; that alters the social environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr"/>
@@ -15771,7 +16319,7 @@
       <c r="Q266" s="2" t="inlineStr"/>
       <c r="R266" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S266" s="2" t="inlineStr">
@@ -15799,7 +16347,7 @@
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that reviews a behavioural goal and considers modifying the goal in light of progress toward the goal.</t>
+          <t>A &lt;goal directed BCT&gt; that reviews a behavioural goal and considers modifying the goal in light of progress toward the goal.</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr"/>
@@ -15833,7 +16381,7 @@
       <c r="Q267" s="2" t="inlineStr"/>
       <c r="R267" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S267" s="2" t="inlineStr">
@@ -15861,7 +16409,7 @@
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that reviews progress towards a behavioural goal and considers modifying the plan to achieve the goal.</t>
+          <t>A &lt;goal directed BCT&gt; that reviews progress towards a behavioural goal and considers modifying the plan to achieve the goal.</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr"/>
@@ -15889,7 +16437,11 @@
       <c r="O268" s="2" t="inlineStr"/>
       <c r="P268" s="2" t="inlineStr"/>
       <c r="Q268" s="2" t="inlineStr"/>
-      <c r="R268" s="2" t="inlineStr"/>
+      <c r="R268" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S268" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15915,7 +16467,7 @@
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that reviews an outcome goal and considers modifying the goal in light of achievement.</t>
+          <t>A &lt;goal directed BCT&gt; that reviews an outcome goal and considers modifying the goal in light of achievement.</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -15949,7 +16501,7 @@
       <c r="Q269" s="2" t="inlineStr"/>
       <c r="R269" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S269" s="2" t="inlineStr">
@@ -15977,7 +16529,7 @@
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT in which the person uses a method to monitor and record their behaviour.</t>
+          <t>A &lt;monitoring BCT&gt; in which the person uses a method to monitor and record their behaviour.</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
@@ -16015,7 +16567,7 @@
       <c r="Q270" s="2" t="inlineStr"/>
       <c r="R270" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S270" s="2" t="inlineStr">
@@ -16043,7 +16595,7 @@
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT in which the person uses a method to monitor and record an outcome of their behaviour.</t>
+          <t>A &lt;monitoring BCT&gt; in which the person uses a method to monitor and record an outcome of their behaviour.</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
@@ -16077,7 +16629,7 @@
       <c r="Q271" s="2" t="inlineStr"/>
       <c r="R271" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S271" s="2" t="inlineStr">
@@ -16105,7 +16657,7 @@
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>A goal setting BCT that sets a goal for the behaviour to be achieved.</t>
+          <t>A &lt;goal setting BCT&gt; that sets a goal for the behaviour to be achieved.</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -16139,7 +16691,7 @@
       <c r="Q272" s="2" t="inlineStr"/>
       <c r="R272" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S272" s="2" t="inlineStr">
@@ -16167,7 +16719,7 @@
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that sets easy-to-perform tasks for the person, making them increasingly difficult, but achievable, until the behaviour is performed.</t>
+          <t>A &lt;goal directed BCT&gt; that sets easy-to-perform tasks for the person, making them increasingly difficult, but achievable, until the behaviour is performed.</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr"/>
@@ -16201,7 +16753,7 @@
       <c r="Q273" s="2" t="inlineStr"/>
       <c r="R273" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S273" s="2" t="inlineStr">
@@ -16229,7 +16781,7 @@
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>A set behaviour goal BCT that describes the behaviour to be achieved in terms of a measurable target.</t>
+          <t>A &lt;set behaviour goal BCT&gt; that describes the behaviour to be achieved in terms of a measurable target.</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
@@ -16257,7 +16809,11 @@
       <c r="O274" s="2" t="inlineStr"/>
       <c r="P274" s="2" t="inlineStr"/>
       <c r="Q274" s="2" t="inlineStr"/>
-      <c r="R274" s="2" t="inlineStr"/>
+      <c r="R274" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S274" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16283,7 +16839,7 @@
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>A set outcome goal BCT that describes the behavioural outcome to be achieved in terms of a measurable target.</t>
+          <t>A &lt;set outcome goal BCT&gt; that describes the behavioural outcome to be achieved in terms of a measurable target.</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
@@ -16311,7 +16867,11 @@
       <c r="O275" s="2" t="inlineStr"/>
       <c r="P275" s="2" t="inlineStr"/>
       <c r="Q275" s="2" t="inlineStr"/>
-      <c r="R275" s="2" t="inlineStr"/>
+      <c r="R275" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S275" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16337,7 +16897,7 @@
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>A goal setting BCT in which the goal is a positive outcome of performing the behaviour.</t>
+          <t>A &lt;goal setting BCT&gt; in which the goal is a positive outcome of performing the behaviour.</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr"/>
@@ -16371,7 +16931,7 @@
       <c r="Q276" s="2" t="inlineStr"/>
       <c r="R276" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S276" s="2" t="inlineStr">
@@ -16399,7 +16959,7 @@
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that involves taking steps to secure or deliver the support or aid of another person.</t>
+          <t>A &lt;behaviour change technique&gt; that involves taking steps to secure or deliver the support or aid of another person.</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr"/>
@@ -16433,7 +16993,7 @@
       <c r="Q277" s="2" t="inlineStr"/>
       <c r="R277" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S277" s="2" t="inlineStr">
@@ -16461,7 +17021,7 @@
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to replace the unwanted behaviour with another behaviour.</t>
+          <t>An &lt;advise specific behaviour BCT&gt; that advises the person to replace the unwanted behaviour with another behaviour.</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr"/>
@@ -16499,7 +17059,7 @@
       <c r="Q278" s="2" t="inlineStr"/>
       <c r="R278" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S278" s="2" t="inlineStr">
@@ -16527,7 +17087,7 @@
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour change technique that suggests the deliberate adoption of a new perspective on the behaviour. </t>
+          <t xml:space="preserve">A &lt;behaviour change technique&gt; that suggests the deliberate adoption of a new perspective on the behaviour. </t>
         </is>
       </c>
       <c r="E279" s="2" t="inlineStr"/>
@@ -16557,7 +17117,7 @@
       <c r="Q279" s="2" t="inlineStr"/>
       <c r="R279" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S279" s="2" t="inlineStr">
@@ -16585,7 +17145,7 @@
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>A guide how to perform behaviour BCT that provides a suggestion regarding how to perform the behaviour.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that provides a suggestion regarding how to perform the behaviour.</t>
         </is>
       </c>
       <c r="E280" s="2" t="inlineStr"/>
@@ -16609,7 +17169,11 @@
       <c r="O280" s="2" t="inlineStr"/>
       <c r="P280" s="2" t="inlineStr"/>
       <c r="Q280" s="2" t="inlineStr"/>
-      <c r="R280" s="2" t="inlineStr"/>
+      <c r="R280" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S280" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16635,7 +17199,7 @@
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>An awareness of other people's thoughts, feelings and actions BCT that involves sharing a view about what behaviour the person should do.</t>
+          <t>An &lt;awareness of other people's thoughts, feelings and actions BCT&gt; that involves sharing a view about what behaviour the person should do.</t>
         </is>
       </c>
       <c r="E281" s="2" t="inlineStr"/>
@@ -16671,7 +17235,11 @@
       <c r="O281" s="2" t="inlineStr"/>
       <c r="P281" s="2" t="inlineStr"/>
       <c r="Q281" s="2" t="inlineStr"/>
-      <c r="R281" s="2" t="inlineStr"/>
+      <c r="R281" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S281" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16697,7 +17265,7 @@
       </c>
       <c r="D282" s="2" t="inlineStr">
         <is>
-          <t>An expose to stimulus BCT that gradually exposes the person to an aversive stimulus while also engaging them in a relaxation process to reduce the response to that stimulus.</t>
+          <t>An &lt;expose to stimulus BCT&gt; that gradually exposes the person to an aversive stimulus while also engaging them in a relaxation process to reduce the response to that stimulus.</t>
         </is>
       </c>
       <c r="E282" s="2" t="inlineStr"/>
@@ -16721,7 +17289,11 @@
       <c r="O282" s="2" t="inlineStr"/>
       <c r="P282" s="2" t="inlineStr"/>
       <c r="Q282" s="2" t="inlineStr"/>
-      <c r="R282" s="2" t="inlineStr"/>
+      <c r="R282" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S282" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16747,7 +17319,7 @@
       </c>
       <c r="D283" s="2" t="inlineStr">
         <is>
-          <t>An awareness of other people's thoughts, feelings and actions BCT that involves telling the person to perform the behaviour.</t>
+          <t>An &lt;awareness of other people's thoughts, feelings and actions BCT&gt; that involves telling the person to perform the behaviour.</t>
         </is>
       </c>
       <c r="E283" s="2" t="inlineStr"/>
@@ -16785,7 +17357,7 @@
       <c r="Q283" s="2" t="inlineStr"/>
       <c r="R283" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S283" s="2" t="inlineStr">
@@ -16813,7 +17385,7 @@
       </c>
       <c r="D284" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that prompts observation of another person being punished when they perform the behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that prompts observation of another person being punished when they perform the behaviour.</t>
         </is>
       </c>
       <c r="E284" s="2" t="inlineStr"/>
@@ -16841,7 +17413,11 @@
       <c r="O284" s="2" t="inlineStr"/>
       <c r="P284" s="2" t="inlineStr"/>
       <c r="Q284" s="2" t="inlineStr"/>
-      <c r="R284" s="2" t="inlineStr"/>
+      <c r="R284" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="S284" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16867,7 +17443,7 @@
       </c>
       <c r="D285" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that prompts observation of another person being rewarded when they perform the behaviour.</t>
+          <t>An &lt;increase awareness of consequences BCT&gt; that prompts observation of another person being rewarded when they perform the behaviour.</t>
         </is>
       </c>
       <c r="E285" s="2" t="inlineStr"/>
@@ -16901,7 +17477,7 @@
       <c r="Q285" s="2" t="inlineStr"/>
       <c r="R285" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; LZ</t>
         </is>
       </c>
       <c r="S285" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/bcto.xlsx
+++ b/BehaviourChangeTechniques/bcto.xlsx
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change</t>
+          <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -3742,7 +3742,7 @@
       <c r="Q57" s="2" t="inlineStr"/>
       <c r="R57" s="2" t="inlineStr">
         <is>
-          <t>LZ</t>
+          <t>LZ; PS</t>
         </is>
       </c>
       <c r="S57" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/bcto.xlsx
+++ b/BehaviourChangeTechniques/bcto.xlsx
@@ -6808,7 +6808,7 @@
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>‘inform about negative emotional consequences BCT’ OR ‘inform about negative environmental consequences BCT’ OR ‘inform about negative health consequences BCT’ OR ‘inform about negative social consequences BCT’</t>
+          <t>'inform about negative emotional consequences BCT' OR 'inform about negative environmental consequences BCT' OR 'inform about negative health consequences BCT' OR 'inform about negative social consequences BCT'</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr"/>
@@ -6835,7 +6835,11 @@
       <c r="O108" s="2" t="inlineStr"/>
       <c r="P108" s="2" t="inlineStr"/>
       <c r="Q108" s="2" t="inlineStr"/>
-      <c r="R108" s="2" t="inlineStr"/>
+      <c r="R108" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="S108" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/BehaviourChangeTechniques/bcto.xlsx
+++ b/BehaviourChangeTechniques/bcto.xlsx
@@ -561,28 +561,28 @@
           <t>An &lt;increase awareness of consequences BCT&gt; that provides information about the positive consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -4425,28 +4425,28 @@
           <t>A &lt;directly restructure the physical environment BCT&gt; that creates a more positive sensory experience while engaging in the behaviour.</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
       <c r="M69" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr"/>
-      <c r="R69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
+      <c r="Q69" s="2" t="n"/>
+      <c r="R69" s="2" t="n"/>
       <c r="S69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T69" s="2" t="inlineStr"/>
+      <c r="T69" s="2" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -4469,28 +4469,28 @@
           <t>A &lt;directly restructure the physical environment BCT&gt; that creates a more negative sensory experience while engaging in the behaviour.</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="n"/>
+      <c r="I70" s="2" t="n"/>
+      <c r="J70" s="2" t="n"/>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
       <c r="M70" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr"/>
-      <c r="R70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="n"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
+      <c r="Q70" s="2" t="n"/>
+      <c r="R70" s="2" t="n"/>
       <c r="S70" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T70" s="2" t="inlineStr"/>
+      <c r="T70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -4579,28 +4579,28 @@
           <t>A &lt;restructure the social environment BCT&gt; that involves creating or amending a social rule regarding the behaviour.</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="n"/>
+      <c r="G72" s="2" t="n"/>
+      <c r="H72" s="2" t="n"/>
+      <c r="I72" s="2" t="n"/>
+      <c r="J72" s="2" t="n"/>
+      <c r="K72" s="2" t="n"/>
+      <c r="L72" s="2" t="n"/>
       <c r="M72" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N72" s="2" t="inlineStr"/>
-      <c r="O72" s="2" t="inlineStr"/>
-      <c r="P72" s="2" t="inlineStr"/>
-      <c r="Q72" s="2" t="inlineStr"/>
-      <c r="R72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="n"/>
+      <c r="O72" s="2" t="n"/>
+      <c r="P72" s="2" t="n"/>
+      <c r="Q72" s="2" t="n"/>
+      <c r="R72" s="2" t="n"/>
       <c r="S72" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T72" s="2" t="inlineStr"/>
+      <c r="T72" s="2" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
@@ -4751,28 +4751,28 @@
           <t>A &lt;restructure the social environment BCT&gt; that involves decreasing exposure of the person to other people doing the behaviour.</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr"/>
-      <c r="K75" s="2" t="inlineStr"/>
-      <c r="L75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="2" t="n"/>
+      <c r="G75" s="2" t="n"/>
+      <c r="H75" s="2" t="n"/>
+      <c r="I75" s="2" t="n"/>
+      <c r="J75" s="2" t="n"/>
+      <c r="K75" s="2" t="n"/>
+      <c r="L75" s="2" t="n"/>
       <c r="M75" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N75" s="2" t="inlineStr"/>
-      <c r="O75" s="2" t="inlineStr"/>
-      <c r="P75" s="2" t="inlineStr"/>
-      <c r="Q75" s="2" t="inlineStr"/>
-      <c r="R75" s="2" t="inlineStr"/>
+      <c r="N75" s="2" t="n"/>
+      <c r="O75" s="2" t="n"/>
+      <c r="P75" s="2" t="n"/>
+      <c r="Q75" s="2" t="n"/>
+      <c r="R75" s="2" t="n"/>
       <c r="S75" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T75" s="2" t="inlineStr"/>
+      <c r="T75" s="2" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -4795,28 +4795,28 @@
           <t>A &lt;restructure the physical environment BCT&gt; that increases the financial cost of the behaviour relative to the person’s access to financial resources.</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
-      <c r="J76" s="2" t="inlineStr"/>
-      <c r="K76" s="2" t="inlineStr"/>
-      <c r="L76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="n"/>
+      <c r="G76" s="2" t="n"/>
+      <c r="H76" s="2" t="n"/>
+      <c r="I76" s="2" t="n"/>
+      <c r="J76" s="2" t="n"/>
+      <c r="K76" s="2" t="n"/>
+      <c r="L76" s="2" t="n"/>
       <c r="M76" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N76" s="2" t="inlineStr"/>
-      <c r="O76" s="2" t="inlineStr"/>
-      <c r="P76" s="2" t="inlineStr"/>
-      <c r="Q76" s="2" t="inlineStr"/>
-      <c r="R76" s="2" t="inlineStr"/>
+      <c r="N76" s="2" t="n"/>
+      <c r="O76" s="2" t="n"/>
+      <c r="P76" s="2" t="n"/>
+      <c r="Q76" s="2" t="n"/>
+      <c r="R76" s="2" t="n"/>
       <c r="S76" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T76" s="2" t="inlineStr"/>
+      <c r="T76" s="2" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
@@ -5631,28 +5631,28 @@
           <t>A &lt;restructure the physical environment BCT&gt; that reduces practical obstacles and distance to spaces where the behaviour is performed.</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr"/>
-      <c r="G90" s="2" t="inlineStr"/>
-      <c r="H90" s="2" t="inlineStr"/>
-      <c r="I90" s="2" t="inlineStr"/>
-      <c r="J90" s="2" t="inlineStr"/>
-      <c r="K90" s="2" t="inlineStr"/>
-      <c r="L90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+      <c r="H90" s="2" t="n"/>
+      <c r="I90" s="2" t="n"/>
+      <c r="J90" s="2" t="n"/>
+      <c r="K90" s="2" t="n"/>
+      <c r="L90" s="2" t="n"/>
       <c r="M90" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N90" s="2" t="inlineStr"/>
-      <c r="O90" s="2" t="inlineStr"/>
-      <c r="P90" s="2" t="inlineStr"/>
-      <c r="Q90" s="2" t="inlineStr"/>
-      <c r="R90" s="2" t="inlineStr"/>
+      <c r="N90" s="2" t="n"/>
+      <c r="O90" s="2" t="n"/>
+      <c r="P90" s="2" t="n"/>
+      <c r="Q90" s="2" t="n"/>
+      <c r="R90" s="2" t="n"/>
       <c r="S90" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T90" s="2" t="inlineStr"/>
+      <c r="T90" s="2" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
@@ -6271,28 +6271,28 @@
           <t>A &lt;restructure the physical environment BCT&gt; that increases practical obstacles and distance to spaces where the behaviour is performed.</t>
         </is>
       </c>
-      <c r="E101" s="2" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
-      <c r="H101" s="2" t="inlineStr"/>
-      <c r="I101" s="2" t="inlineStr"/>
-      <c r="J101" s="2" t="inlineStr"/>
-      <c r="K101" s="2" t="inlineStr"/>
-      <c r="L101" s="2" t="inlineStr"/>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+      <c r="G101" s="2" t="n"/>
+      <c r="H101" s="2" t="n"/>
+      <c r="I101" s="2" t="n"/>
+      <c r="J101" s="2" t="n"/>
+      <c r="K101" s="2" t="n"/>
+      <c r="L101" s="2" t="n"/>
       <c r="M101" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N101" s="2" t="inlineStr"/>
-      <c r="O101" s="2" t="inlineStr"/>
-      <c r="P101" s="2" t="inlineStr"/>
-      <c r="Q101" s="2" t="inlineStr"/>
-      <c r="R101" s="2" t="inlineStr"/>
+      <c r="N101" s="2" t="n"/>
+      <c r="O101" s="2" t="n"/>
+      <c r="P101" s="2" t="n"/>
+      <c r="Q101" s="2" t="n"/>
+      <c r="R101" s="2" t="n"/>
       <c r="S101" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T101" s="2" t="inlineStr"/>
+      <c r="T101" s="2" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
@@ -6601,28 +6601,28 @@
           <t>A &lt;restructure the social environment BCT&gt; that involves increasing exposure of the person to other people doing the behaviour.</t>
         </is>
       </c>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr"/>
-      <c r="J107" s="2" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr"/>
-      <c r="L107" s="2" t="inlineStr"/>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+      <c r="H107" s="2" t="n"/>
+      <c r="I107" s="2" t="n"/>
+      <c r="J107" s="2" t="n"/>
+      <c r="K107" s="2" t="n"/>
+      <c r="L107" s="2" t="n"/>
       <c r="M107" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N107" s="2" t="inlineStr"/>
-      <c r="O107" s="2" t="inlineStr"/>
-      <c r="P107" s="2" t="inlineStr"/>
-      <c r="Q107" s="2" t="inlineStr"/>
-      <c r="R107" s="2" t="inlineStr"/>
+      <c r="N107" s="2" t="n"/>
+      <c r="O107" s="2" t="n"/>
+      <c r="P107" s="2" t="n"/>
+      <c r="Q107" s="2" t="n"/>
+      <c r="R107" s="2" t="n"/>
       <c r="S107" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T107" s="2" t="inlineStr"/>
+      <c r="T107" s="2" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -6645,28 +6645,28 @@
           <t>A &lt;restructure the physical environment BCT&gt; that reduces the financial cost of the behaviour relative to the person’s access to financial resources.</t>
         </is>
       </c>
-      <c r="E108" s="2" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr"/>
-      <c r="H108" s="2" t="inlineStr"/>
-      <c r="I108" s="2" t="inlineStr"/>
-      <c r="J108" s="2" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr"/>
-      <c r="L108" s="2" t="inlineStr"/>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+      <c r="H108" s="2" t="n"/>
+      <c r="I108" s="2" t="n"/>
+      <c r="J108" s="2" t="n"/>
+      <c r="K108" s="2" t="n"/>
+      <c r="L108" s="2" t="n"/>
       <c r="M108" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N108" s="2" t="inlineStr"/>
-      <c r="O108" s="2" t="inlineStr"/>
-      <c r="P108" s="2" t="inlineStr"/>
-      <c r="Q108" s="2" t="inlineStr"/>
-      <c r="R108" s="2" t="inlineStr"/>
+      <c r="N108" s="2" t="n"/>
+      <c r="O108" s="2" t="n"/>
+      <c r="P108" s="2" t="n"/>
+      <c r="Q108" s="2" t="n"/>
+      <c r="R108" s="2" t="n"/>
       <c r="S108" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T108" s="2" t="inlineStr"/>
+      <c r="T108" s="2" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
@@ -6817,28 +6817,28 @@
           <t>An &lt;awareness of other peoples thoughts, feelings and actions BCT&gt; that involves increasing the salience of a social rule concerning the behaviour.</t>
         </is>
       </c>
-      <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr"/>
-      <c r="G111" s="2" t="inlineStr"/>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
-      <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
-      <c r="L111" s="2" t="inlineStr"/>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+      <c r="H111" s="2" t="n"/>
+      <c r="I111" s="2" t="n"/>
+      <c r="J111" s="2" t="n"/>
+      <c r="K111" s="2" t="n"/>
+      <c r="L111" s="2" t="n"/>
       <c r="M111" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N111" s="2" t="inlineStr"/>
-      <c r="O111" s="2" t="inlineStr"/>
-      <c r="P111" s="2" t="inlineStr"/>
-      <c r="Q111" s="2" t="inlineStr"/>
-      <c r="R111" s="2" t="inlineStr"/>
+      <c r="N111" s="2" t="n"/>
+      <c r="O111" s="2" t="n"/>
+      <c r="P111" s="2" t="n"/>
+      <c r="Q111" s="2" t="n"/>
+      <c r="R111" s="2" t="n"/>
       <c r="S111" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T111" s="2" t="inlineStr"/>
+      <c r="T111" s="2" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
@@ -7856,28 +7856,28 @@
           <t>An &lt;awareness of other peoples thoughts, feelings and actions BCT&gt; that involves informing the person about a social rule regarding the behaviour.</t>
         </is>
       </c>
-      <c r="E129" s="2" t="inlineStr"/>
-      <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr"/>
-      <c r="H129" s="2" t="inlineStr"/>
-      <c r="I129" s="2" t="inlineStr"/>
-      <c r="J129" s="2" t="inlineStr"/>
-      <c r="K129" s="2" t="inlineStr"/>
-      <c r="L129" s="2" t="inlineStr"/>
+      <c r="E129" s="2" t="n"/>
+      <c r="F129" s="2" t="n"/>
+      <c r="G129" s="2" t="n"/>
+      <c r="H129" s="2" t="n"/>
+      <c r="I129" s="2" t="n"/>
+      <c r="J129" s="2" t="n"/>
+      <c r="K129" s="2" t="n"/>
+      <c r="L129" s="2" t="n"/>
       <c r="M129" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N129" s="2" t="inlineStr"/>
-      <c r="O129" s="2" t="inlineStr"/>
-      <c r="P129" s="2" t="inlineStr"/>
-      <c r="Q129" s="2" t="inlineStr"/>
-      <c r="R129" s="2" t="inlineStr"/>
+      <c r="N129" s="2" t="n"/>
+      <c r="O129" s="2" t="n"/>
+      <c r="P129" s="2" t="n"/>
+      <c r="Q129" s="2" t="n"/>
+      <c r="R129" s="2" t="n"/>
       <c r="S129" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T129" s="2" t="inlineStr"/>
+      <c r="T129" s="2" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
@@ -8082,28 +8082,28 @@
           <t>A &lt;restructure the physical environment BCT&gt; that modifies objects in the person’s physical surroundings.</t>
         </is>
       </c>
-      <c r="E133" s="2" t="inlineStr"/>
-      <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr"/>
-      <c r="H133" s="2" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr"/>
-      <c r="J133" s="2" t="inlineStr"/>
-      <c r="K133" s="2" t="inlineStr"/>
-      <c r="L133" s="2" t="inlineStr"/>
+      <c r="E133" s="2" t="n"/>
+      <c r="F133" s="2" t="n"/>
+      <c r="G133" s="2" t="n"/>
+      <c r="H133" s="2" t="n"/>
+      <c r="I133" s="2" t="n"/>
+      <c r="J133" s="2" t="n"/>
+      <c r="K133" s="2" t="n"/>
+      <c r="L133" s="2" t="n"/>
       <c r="M133" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N133" s="2" t="inlineStr"/>
-      <c r="O133" s="2" t="inlineStr"/>
-      <c r="P133" s="2" t="inlineStr"/>
-      <c r="Q133" s="2" t="inlineStr"/>
-      <c r="R133" s="2" t="inlineStr"/>
+      <c r="N133" s="2" t="n"/>
+      <c r="O133" s="2" t="n"/>
+      <c r="P133" s="2" t="n"/>
+      <c r="Q133" s="2" t="n"/>
+      <c r="R133" s="2" t="n"/>
       <c r="S133" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T133" s="2" t="inlineStr"/>
+      <c r="T133" s="2" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
@@ -10626,12 +10626,12 @@
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>promise aversive consequence for behaviour BCT</t>
+          <t>promise positive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>A &lt;promise aversive consequence for behaviour BCT&gt; that promises to provide the consequence at increasingly less frequent intervals.</t>
+          <t>A &lt;promise positive consequence for behaviour BCT&gt; that promises to provide the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E176" s="3" t="n"/>
@@ -10804,12 +10804,12 @@
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>promise positive consequence for behaviour BCT</t>
+          <t>promise aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
         <is>
-          <t>A &lt;promise positive consequence for behaviour BCT&gt; that promises to provide the consequence at increasingly less frequent intervals.</t>
+          <t>A &lt;promise aversive consequence for behaviour BCT&gt; that promises to provide the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E179" s="3" t="n"/>
@@ -12054,28 +12054,28 @@
           <t>An &lt;increase awareness of behaviour BCT&gt; that advises, reminds or directs the person to do the behaviour without delay.</t>
         </is>
       </c>
-      <c r="E200" s="2" t="inlineStr"/>
-      <c r="F200" s="2" t="inlineStr"/>
-      <c r="G200" s="2" t="inlineStr"/>
-      <c r="H200" s="2" t="inlineStr"/>
-      <c r="I200" s="2" t="inlineStr"/>
-      <c r="J200" s="2" t="inlineStr"/>
-      <c r="K200" s="2" t="inlineStr"/>
-      <c r="L200" s="2" t="inlineStr"/>
+      <c r="E200" s="2" t="n"/>
+      <c r="F200" s="2" t="n"/>
+      <c r="G200" s="2" t="n"/>
+      <c r="H200" s="2" t="n"/>
+      <c r="I200" s="2" t="n"/>
+      <c r="J200" s="2" t="n"/>
+      <c r="K200" s="2" t="n"/>
+      <c r="L200" s="2" t="n"/>
       <c r="M200" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N200" s="2" t="inlineStr"/>
-      <c r="O200" s="2" t="inlineStr"/>
-      <c r="P200" s="2" t="inlineStr"/>
-      <c r="Q200" s="2" t="inlineStr"/>
-      <c r="R200" s="2" t="inlineStr"/>
+      <c r="N200" s="2" t="n"/>
+      <c r="O200" s="2" t="n"/>
+      <c r="P200" s="2" t="n"/>
+      <c r="Q200" s="2" t="n"/>
+      <c r="R200" s="2" t="n"/>
       <c r="S200" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T200" s="2" t="inlineStr"/>
+      <c r="T200" s="2" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
@@ -12404,28 +12404,28 @@
           <t>A &lt;restructure the physical environment BCT&gt; that allocates a period of time to do the behaviour without competing with other behaviours.</t>
         </is>
       </c>
-      <c r="E206" s="2" t="inlineStr"/>
-      <c r="F206" s="2" t="inlineStr"/>
-      <c r="G206" s="2" t="inlineStr"/>
-      <c r="H206" s="2" t="inlineStr"/>
-      <c r="I206" s="2" t="inlineStr"/>
-      <c r="J206" s="2" t="inlineStr"/>
-      <c r="K206" s="2" t="inlineStr"/>
-      <c r="L206" s="2" t="inlineStr"/>
+      <c r="E206" s="2" t="n"/>
+      <c r="F206" s="2" t="n"/>
+      <c r="G206" s="2" t="n"/>
+      <c r="H206" s="2" t="n"/>
+      <c r="I206" s="2" t="n"/>
+      <c r="J206" s="2" t="n"/>
+      <c r="K206" s="2" t="n"/>
+      <c r="L206" s="2" t="n"/>
       <c r="M206" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N206" s="2" t="inlineStr"/>
-      <c r="O206" s="2" t="inlineStr"/>
-      <c r="P206" s="2" t="inlineStr"/>
-      <c r="Q206" s="2" t="inlineStr"/>
-      <c r="R206" s="2" t="inlineStr"/>
+      <c r="N206" s="2" t="n"/>
+      <c r="O206" s="2" t="n"/>
+      <c r="P206" s="2" t="n"/>
+      <c r="Q206" s="2" t="n"/>
+      <c r="R206" s="2" t="n"/>
       <c r="S206" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T206" s="2" t="inlineStr"/>
+      <c r="T206" s="2" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
@@ -15860,28 +15860,28 @@
           <t>A &lt;restructure the physical environment BCT&gt; that reduces the amount of time required for the behaviour to be undertaken.</t>
         </is>
       </c>
-      <c r="E263" s="2" t="inlineStr"/>
-      <c r="F263" s="2" t="inlineStr"/>
-      <c r="G263" s="2" t="inlineStr"/>
-      <c r="H263" s="2" t="inlineStr"/>
-      <c r="I263" s="2" t="inlineStr"/>
-      <c r="J263" s="2" t="inlineStr"/>
-      <c r="K263" s="2" t="inlineStr"/>
-      <c r="L263" s="2" t="inlineStr"/>
+      <c r="E263" s="2" t="n"/>
+      <c r="F263" s="2" t="n"/>
+      <c r="G263" s="2" t="n"/>
+      <c r="H263" s="2" t="n"/>
+      <c r="I263" s="2" t="n"/>
+      <c r="J263" s="2" t="n"/>
+      <c r="K263" s="2" t="n"/>
+      <c r="L263" s="2" t="n"/>
       <c r="M263" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N263" s="2" t="inlineStr"/>
-      <c r="O263" s="2" t="inlineStr"/>
-      <c r="P263" s="2" t="inlineStr"/>
-      <c r="Q263" s="2" t="inlineStr"/>
-      <c r="R263" s="2" t="inlineStr"/>
+      <c r="N263" s="2" t="n"/>
+      <c r="O263" s="2" t="n"/>
+      <c r="P263" s="2" t="n"/>
+      <c r="Q263" s="2" t="n"/>
+      <c r="R263" s="2" t="n"/>
       <c r="S263" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T263" s="2" t="inlineStr"/>
+      <c r="T263" s="2" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
@@ -16558,28 +16558,28 @@
           <t>A &lt;restructure the physical environment BCT&gt; that removes objects from the person’s physical surroundings.</t>
         </is>
       </c>
-      <c r="E275" s="2" t="inlineStr"/>
-      <c r="F275" s="2" t="inlineStr"/>
-      <c r="G275" s="2" t="inlineStr"/>
-      <c r="H275" s="2" t="inlineStr"/>
-      <c r="I275" s="2" t="inlineStr"/>
-      <c r="J275" s="2" t="inlineStr"/>
-      <c r="K275" s="2" t="inlineStr"/>
-      <c r="L275" s="2" t="inlineStr"/>
+      <c r="E275" s="2" t="n"/>
+      <c r="F275" s="2" t="n"/>
+      <c r="G275" s="2" t="n"/>
+      <c r="H275" s="2" t="n"/>
+      <c r="I275" s="2" t="n"/>
+      <c r="J275" s="2" t="n"/>
+      <c r="K275" s="2" t="n"/>
+      <c r="L275" s="2" t="n"/>
       <c r="M275" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N275" s="2" t="inlineStr"/>
-      <c r="O275" s="2" t="inlineStr"/>
-      <c r="P275" s="2" t="inlineStr"/>
-      <c r="Q275" s="2" t="inlineStr"/>
-      <c r="R275" s="2" t="inlineStr"/>
+      <c r="N275" s="2" t="n"/>
+      <c r="O275" s="2" t="n"/>
+      <c r="P275" s="2" t="n"/>
+      <c r="Q275" s="2" t="n"/>
+      <c r="R275" s="2" t="n"/>
       <c r="S275" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T275" s="2" t="inlineStr"/>
+      <c r="T275" s="2" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
